--- a/InputData/io-model/DCSoCbIC/Domestic Content Share of Consumption by ISIC Code.xlsx
+++ b/InputData/io-model/DCSoCbIC/Domestic Content Share of Consumption by ISIC Code.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Documents\eps-india\InputData\io-model\DCSoCbIC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganM\Documents\eps-india\InputData\io-model\DCSoCbIC\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,12 +14,24 @@
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="OECD TTL" sheetId="7" r:id="rId2"/>
-    <sheet name="OECD ICESHR" sheetId="11" r:id="rId3"/>
-    <sheet name="WIOD Use Table" sheetId="13" r:id="rId4"/>
-    <sheet name="WIOD Input Output Table" sheetId="14" r:id="rId5"/>
-    <sheet name="Calculations" sheetId="9" r:id="rId6"/>
-    <sheet name="DCSoCbIC" sheetId="2" r:id="rId7"/>
+    <sheet name="BFPIaE-production" sheetId="18" r:id="rId3"/>
+    <sheet name="BFPIaE-imports" sheetId="19" r:id="rId4"/>
+    <sheet name="BFPIaE-exports" sheetId="20" r:id="rId5"/>
+    <sheet name="OECD ICESHR" sheetId="11" r:id="rId6"/>
+    <sheet name="WIOD Use Table" sheetId="13" r:id="rId7"/>
+    <sheet name="WIOD Input Output Table" sheetId="14" r:id="rId8"/>
+    <sheet name="Calculations" sheetId="9" r:id="rId9"/>
+    <sheet name="DCSoCbIC" sheetId="2" r:id="rId10"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId11"/>
+    <externalReference r:id="rId12"/>
+  </externalReferences>
+  <definedNames>
+    <definedName name="gal_per_barrel">[1]About!$A$63</definedName>
+    <definedName name="preferences.energyunits">[2]Preferences!$C$3</definedName>
+    <definedName name="Preferences.PowerUnits">[2]Preferences!$C$5</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -38,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1261" uniqueCount="515">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1330" uniqueCount="542">
   <si>
     <t>Source:</t>
   </si>
@@ -1606,6 +1618,87 @@
   <si>
     <t>India NIOT and SUT</t>
   </si>
+  <si>
+    <t>electricity (not used in this variable)</t>
+  </si>
+  <si>
+    <t>hard coal</t>
+  </si>
+  <si>
+    <t>natural gas</t>
+  </si>
+  <si>
+    <t>nuclear</t>
+  </si>
+  <si>
+    <t>hydro (is not a fuel)</t>
+  </si>
+  <si>
+    <t>wind (is not a fuel)</t>
+  </si>
+  <si>
+    <t>solar (is not a fuel)</t>
+  </si>
+  <si>
+    <t>biomass</t>
+  </si>
+  <si>
+    <t>petroleum gasoline</t>
+  </si>
+  <si>
+    <t>petroleum diesel</t>
+  </si>
+  <si>
+    <t>biofuel gasoline</t>
+  </si>
+  <si>
+    <t>biofuel diesel</t>
+  </si>
+  <si>
+    <t>jet fuel or kerosene</t>
+  </si>
+  <si>
+    <t>heat (not used in this variable)</t>
+  </si>
+  <si>
+    <t>geothermal (is not a fuel)</t>
+  </si>
+  <si>
+    <t>lignite</t>
+  </si>
+  <si>
+    <t>crude oil</t>
+  </si>
+  <si>
+    <t>heavy fuel oil</t>
+  </si>
+  <si>
+    <t>LPG propane or butane</t>
+  </si>
+  <si>
+    <t>municipal solid waste</t>
+  </si>
+  <si>
+    <t>hydrogen</t>
+  </si>
+  <si>
+    <t>Fuel (BTU)</t>
+  </si>
+  <si>
+    <t>heat (energy carrier)</t>
+  </si>
+  <si>
+    <t>ISIC 06</t>
+  </si>
+  <si>
+    <t>ISIC 05</t>
+  </si>
+  <si>
+    <t>Coal and Oil/Gas Industries</t>
+  </si>
+  <si>
+    <t>See variable fuels/BFPIaE</t>
+  </si>
 </sst>
 </file>
 
@@ -1952,7 +2045,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2166,6 +2259,20 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="14">
     <cellStyle name="Comma 2" xfId="8"/>
@@ -2194,6 +2301,181 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="About"/>
+      <sheetName val="AEO Table 73"/>
+      <sheetName val="GREET1 Fuel_Specs"/>
+      <sheetName val="BCF-BpLFOU"/>
+      <sheetName val="BCF-BpSFOU"/>
+      <sheetName val="BCF-VFEUCF"/>
+      <sheetName val="BCF-BpEIEOU"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="63">
+          <cell r="A63">
+            <v>42</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="IESS V2 Main Sheet"/>
+      <sheetName val="Preferences"/>
+      <sheetName val="Structure of the model"/>
+      <sheetName val="I.a"/>
+      <sheetName val="I.b"/>
+      <sheetName val="I.c"/>
+      <sheetName val="I.d"/>
+      <sheetName val="I.e"/>
+      <sheetName val="II"/>
+      <sheetName val="III"/>
+      <sheetName val="IV.a"/>
+      <sheetName val="IV.b"/>
+      <sheetName val="IV.c.1"/>
+      <sheetName val="IV.c.2"/>
+      <sheetName val="IV.d"/>
+      <sheetName val="IV.e"/>
+      <sheetName val="IV.f"/>
+      <sheetName val="V.a"/>
+      <sheetName val="V.b"/>
+      <sheetName val="V.c"/>
+      <sheetName val="V.d"/>
+      <sheetName val="V.e"/>
+      <sheetName val="VI"/>
+      <sheetName val="VII.a"/>
+      <sheetName val="VII.b"/>
+      <sheetName val="VII.C"/>
+      <sheetName val="VIII"/>
+      <sheetName val="GDP"/>
+      <sheetName val="IX"/>
+      <sheetName val="X.a"/>
+      <sheetName val="X.b"/>
+      <sheetName val="XI"/>
+      <sheetName val="XII.a"/>
+      <sheetName val="XII.b"/>
+      <sheetName val="XIII.a"/>
+      <sheetName val="XV.a"/>
+      <sheetName val="XV.b"/>
+      <sheetName val="XV.c"/>
+      <sheetName val="XVI"/>
+      <sheetName val="XVII.a"/>
+      <sheetName val="XVII.b"/>
+      <sheetName val="XIV"/>
+      <sheetName val="Intermediate output"/>
+      <sheetName val="Charts"/>
+      <sheetName val="Control"/>
+      <sheetName val="Global assumptions"/>
+      <sheetName val="2012 Baseline"/>
+      <sheetName val="Dispatch"/>
+      <sheetName val="2012"/>
+      <sheetName val="2017"/>
+      <sheetName val="2022"/>
+      <sheetName val="2027"/>
+      <sheetName val="2032"/>
+      <sheetName val="2037"/>
+      <sheetName val="2042"/>
+      <sheetName val="2047"/>
+      <sheetName val="Conversions"/>
+      <sheetName val="Constants"/>
+      <sheetName val="Land Use"/>
+      <sheetName val="CostAbsolute"/>
+      <sheetName val="Flows"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
+        <row r="3">
+          <cell r="C3" t="str">
+            <v>TWh</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="C5" t="str">
+            <v>GW</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
+      <sheetData sheetId="21"/>
+      <sheetData sheetId="22"/>
+      <sheetData sheetId="23"/>
+      <sheetData sheetId="24"/>
+      <sheetData sheetId="25"/>
+      <sheetData sheetId="26"/>
+      <sheetData sheetId="27"/>
+      <sheetData sheetId="28"/>
+      <sheetData sheetId="29"/>
+      <sheetData sheetId="30"/>
+      <sheetData sheetId="31"/>
+      <sheetData sheetId="32"/>
+      <sheetData sheetId="33"/>
+      <sheetData sheetId="34"/>
+      <sheetData sheetId="35"/>
+      <sheetData sheetId="36"/>
+      <sheetData sheetId="37"/>
+      <sheetData sheetId="38"/>
+      <sheetData sheetId="39"/>
+      <sheetData sheetId="40"/>
+      <sheetData sheetId="41"/>
+      <sheetData sheetId="42"/>
+      <sheetData sheetId="43"/>
+      <sheetData sheetId="44"/>
+      <sheetData sheetId="45"/>
+      <sheetData sheetId="46"/>
+      <sheetData sheetId="47"/>
+      <sheetData sheetId="48"/>
+      <sheetData sheetId="49"/>
+      <sheetData sheetId="50"/>
+      <sheetData sheetId="51"/>
+      <sheetData sheetId="52"/>
+      <sheetData sheetId="53"/>
+      <sheetData sheetId="54"/>
+      <sheetData sheetId="55"/>
+      <sheetData sheetId="56"/>
+      <sheetData sheetId="57"/>
+      <sheetData sheetId="58"/>
+      <sheetData sheetId="59"/>
+      <sheetData sheetId="60"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2459,10 +2741,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B51"/>
+  <dimension ref="A1:B54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2534,156 +2816,166 @@
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A16" s="1" t="s">
+      <c r="B16" s="82" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B17" s="29" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A19" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A17" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A18" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A19" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A21" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A22" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A23" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A24" t="s">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A26" s="1" t="s">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A29" s="1" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A27" t="s">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A30" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A28" t="s">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A29" t="s">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A32" t="s">
         <v>163</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A30" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A32" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A35" s="35" t="s">
-        <v>173</v>
-      </c>
-      <c r="B35" s="36"/>
+      <c r="A35" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A36" s="35" t="s">
-        <v>171</v>
-      </c>
-      <c r="B36" s="36"/>
+      <c r="A36" t="s">
+        <v>170</v>
+      </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A37" s="35" t="s">
-        <v>172</v>
-      </c>
-      <c r="B37" s="36"/>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A38" s="35" t="s">
+        <v>173</v>
+      </c>
+      <c r="B38" s="36"/>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A39" s="37" t="s">
-        <v>178</v>
-      </c>
+      <c r="A39" s="35" t="s">
+        <v>171</v>
+      </c>
+      <c r="B39" s="36"/>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A40" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A41" t="s">
-        <v>180</v>
-      </c>
+      <c r="A40" s="35" t="s">
+        <v>172</v>
+      </c>
+      <c r="B40" s="36"/>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A42" t="s">
-        <v>181</v>
+      <c r="A42" s="37" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
-        <v>182</v>
+        <v>179</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A44" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A45" s="29" t="s">
-        <v>183</v>
+      <c r="A45" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A46" s="29" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A47" s="29" t="s">
-        <v>185</v>
+      <c r="A46" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A48" s="29"/>
+      <c r="A48" s="29" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A49" s="1" t="s">
-        <v>166</v>
+      <c r="A49" s="29" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A50" t="s">
-        <v>138</v>
+      <c r="A50" s="29" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A51" s="10">
+      <c r="A51" s="29"/>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A52" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A53" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A54" s="10">
         <v>0.9686815713640794</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B54" t="s">
         <v>167</v>
       </c>
     </row>
@@ -2693,6 +2985,305 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="8" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="A1:AM2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="24.86328125" customWidth="1"/>
+    <col min="2" max="39" width="10.1328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:39" s="4" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>539</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>538</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" s="30" t="s">
+        <v>175</v>
+      </c>
+      <c r="M1" s="30" t="s">
+        <v>176</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="V1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="W1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="X1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC1" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF1" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AG1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH1" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="AI1" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ1" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="AK1" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL1" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="AM1" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:39" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A2" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="B2" s="10">
+        <f>Calculations!B9</f>
+        <v>0.98861400725786042</v>
+      </c>
+      <c r="C2" s="34">
+        <f>SUM('BFPIaE-production'!D3,'BFPIaE-production'!D17)/(SUM('BFPIaE-production'!E3,'BFPIaE-production'!F17,'BFPIaE-imports'!D3,'BFPIaE-imports'!D17)-SUM('BFPIaE-exports'!D3,'BFPIaE-exports'!D17))</f>
+        <v>0.72781143272114224</v>
+      </c>
+      <c r="D2" s="34">
+        <f>SUM('BFPIaE-production'!D4,'BFPIaE-production'!D18)/(SUM('BFPIaE-production'!D4,'BFPIaE-production'!D18,'BFPIaE-imports'!D4,'BFPIaE-imports'!D18)-SUM('BFPIaE-exports'!D4,'BFPIaE-exports'!D18))</f>
+        <v>0.11870203306933387</v>
+      </c>
+      <c r="E2" s="10">
+        <f>Calculations!D9</f>
+        <v>0.5512614537571755</v>
+      </c>
+      <c r="F2" s="10">
+        <f>Calculations!E9</f>
+        <v>0.99017028779157823</v>
+      </c>
+      <c r="G2" s="10">
+        <f>Calculations!F9</f>
+        <v>0.9040864999619681</v>
+      </c>
+      <c r="H2" s="10">
+        <f>Calculations!G9</f>
+        <v>0.93563265591523892</v>
+      </c>
+      <c r="I2" s="10">
+        <f>Calculations!H9</f>
+        <v>0.94478359667742795</v>
+      </c>
+      <c r="J2" s="10">
+        <f>Calculations!I9</f>
+        <v>0.87173359922135818</v>
+      </c>
+      <c r="K2" s="10">
+        <f>Calculations!J9</f>
+        <v>0.97930170898349012</v>
+      </c>
+      <c r="L2" s="34">
+        <f>Calculations!K9</f>
+        <v>0.77213220482667444</v>
+      </c>
+      <c r="M2" s="34">
+        <f>Calculations!L9</f>
+        <v>0.81183276328992038</v>
+      </c>
+      <c r="N2" s="10">
+        <f>Calculations!M9</f>
+        <v>0.92309441441528428</v>
+      </c>
+      <c r="O2" s="10">
+        <f>Calculations!N9</f>
+        <v>0.92975190479368419</v>
+      </c>
+      <c r="P2" s="10">
+        <f>Calculations!O9</f>
+        <v>0.81255958134052997</v>
+      </c>
+      <c r="Q2" s="10">
+        <f>Calculations!P9</f>
+        <v>0.89371734088277954</v>
+      </c>
+      <c r="R2" s="10">
+        <f>Calculations!Q9</f>
+        <v>0.64590139001572799</v>
+      </c>
+      <c r="S2" s="10">
+        <f>Calculations!R9</f>
+        <v>0.87424137136358204</v>
+      </c>
+      <c r="T2" s="10">
+        <f>Calculations!S9</f>
+        <v>0.80718222167564779</v>
+      </c>
+      <c r="U2" s="10">
+        <f>Calculations!T9</f>
+        <v>0.94647011547496562</v>
+      </c>
+      <c r="V2" s="10">
+        <f>Calculations!U9</f>
+        <v>0.70986924892543257</v>
+      </c>
+      <c r="W2" s="10">
+        <f>Calculations!V9</f>
+        <v>0.82807476917188927</v>
+      </c>
+      <c r="X2" s="10">
+        <f>Calculations!W9</f>
+        <v>0.99623843558803404</v>
+      </c>
+      <c r="Y2" s="10">
+        <f>Calculations!X9</f>
+        <v>0.99929863916120321</v>
+      </c>
+      <c r="Z2" s="10">
+        <f>Calculations!Y9</f>
+        <v>0.88801030624894983</v>
+      </c>
+      <c r="AA2" s="10">
+        <f>Calculations!Z9</f>
+        <v>0.89320784121856778</v>
+      </c>
+      <c r="AB2" s="10">
+        <f>Calculations!AA9</f>
+        <v>0.90154021429540221</v>
+      </c>
+      <c r="AC2" s="10">
+        <f>Calculations!AB9</f>
+        <v>0.94985127835263983</v>
+      </c>
+      <c r="AD2" s="10">
+        <f>Calculations!AC9</f>
+        <v>0.97877040889055766</v>
+      </c>
+      <c r="AE2" s="10">
+        <f>Calculations!AD9</f>
+        <v>0.89999347932258866</v>
+      </c>
+      <c r="AF2" s="10">
+        <f>Calculations!AE9</f>
+        <v>0.89547071198797801</v>
+      </c>
+      <c r="AG2" s="10">
+        <f>Calculations!AF9</f>
+        <v>0.99149801472029553</v>
+      </c>
+      <c r="AH2" s="10">
+        <f>Calculations!AG9</f>
+        <v>0.8573405509994303</v>
+      </c>
+      <c r="AI2" s="10">
+        <f>Calculations!AH9</f>
+        <v>0.99890647896820772</v>
+      </c>
+      <c r="AJ2" s="10">
+        <f>Calculations!AI9</f>
+        <v>0.98245060846486154</v>
+      </c>
+      <c r="AK2" s="10">
+        <f>Calculations!AJ9</f>
+        <v>0.99445190985727672</v>
+      </c>
+      <c r="AL2" s="10">
+        <f>Calculations!AK9</f>
+        <v>0.97940922684212262</v>
+      </c>
+      <c r="AM2" s="10">
+        <f>Calculations!AL9</f>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -9124,6 +9715,7139 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AI23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="36.265625" customWidth="1"/>
+    <col min="2" max="35" width="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A1" s="97" t="s">
+        <v>536</v>
+      </c>
+      <c r="B1" s="99">
+        <v>2017</v>
+      </c>
+      <c r="C1" s="100">
+        <v>2018</v>
+      </c>
+      <c r="D1" s="99">
+        <v>2019</v>
+      </c>
+      <c r="E1" s="100">
+        <v>2020</v>
+      </c>
+      <c r="F1" s="99">
+        <v>2021</v>
+      </c>
+      <c r="G1" s="100">
+        <v>2022</v>
+      </c>
+      <c r="H1" s="99">
+        <v>2023</v>
+      </c>
+      <c r="I1" s="100">
+        <v>2024</v>
+      </c>
+      <c r="J1" s="99">
+        <v>2025</v>
+      </c>
+      <c r="K1" s="100">
+        <v>2026</v>
+      </c>
+      <c r="L1" s="99">
+        <v>2027</v>
+      </c>
+      <c r="M1" s="100">
+        <v>2028</v>
+      </c>
+      <c r="N1" s="99">
+        <v>2029</v>
+      </c>
+      <c r="O1" s="100">
+        <v>2030</v>
+      </c>
+      <c r="P1" s="99">
+        <v>2031</v>
+      </c>
+      <c r="Q1" s="100">
+        <v>2032</v>
+      </c>
+      <c r="R1" s="99">
+        <v>2033</v>
+      </c>
+      <c r="S1" s="100">
+        <v>2034</v>
+      </c>
+      <c r="T1" s="99">
+        <v>2035</v>
+      </c>
+      <c r="U1" s="100">
+        <v>2036</v>
+      </c>
+      <c r="V1" s="99">
+        <v>2037</v>
+      </c>
+      <c r="W1" s="100">
+        <v>2038</v>
+      </c>
+      <c r="X1" s="99">
+        <v>2039</v>
+      </c>
+      <c r="Y1" s="100">
+        <v>2040</v>
+      </c>
+      <c r="Z1" s="99">
+        <v>2041</v>
+      </c>
+      <c r="AA1" s="100">
+        <v>2042</v>
+      </c>
+      <c r="AB1" s="99">
+        <v>2043</v>
+      </c>
+      <c r="AC1" s="100">
+        <v>2044</v>
+      </c>
+      <c r="AD1" s="99">
+        <v>2045</v>
+      </c>
+      <c r="AE1" s="100">
+        <v>2046</v>
+      </c>
+      <c r="AF1" s="99">
+        <v>2047</v>
+      </c>
+      <c r="AG1" s="100">
+        <v>2048</v>
+      </c>
+      <c r="AH1" s="99">
+        <v>2049</v>
+      </c>
+      <c r="AI1" s="100">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="2" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A2" s="97" t="s">
+        <v>515</v>
+      </c>
+      <c r="B2" s="101">
+        <v>0</v>
+      </c>
+      <c r="C2" s="101">
+        <v>0</v>
+      </c>
+      <c r="D2" s="101">
+        <v>0</v>
+      </c>
+      <c r="E2" s="101">
+        <v>0</v>
+      </c>
+      <c r="F2" s="101">
+        <v>0</v>
+      </c>
+      <c r="G2" s="101">
+        <v>0</v>
+      </c>
+      <c r="H2" s="101">
+        <v>0</v>
+      </c>
+      <c r="I2" s="101">
+        <v>0</v>
+      </c>
+      <c r="J2" s="101">
+        <v>0</v>
+      </c>
+      <c r="K2" s="101">
+        <v>0</v>
+      </c>
+      <c r="L2" s="101">
+        <v>0</v>
+      </c>
+      <c r="M2" s="101">
+        <v>0</v>
+      </c>
+      <c r="N2" s="101">
+        <v>0</v>
+      </c>
+      <c r="O2" s="101">
+        <v>0</v>
+      </c>
+      <c r="P2" s="101">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="101">
+        <v>0</v>
+      </c>
+      <c r="R2" s="101">
+        <v>0</v>
+      </c>
+      <c r="S2" s="101">
+        <v>0</v>
+      </c>
+      <c r="T2" s="101">
+        <v>0</v>
+      </c>
+      <c r="U2" s="101">
+        <v>0</v>
+      </c>
+      <c r="V2" s="101">
+        <v>0</v>
+      </c>
+      <c r="W2" s="101">
+        <v>0</v>
+      </c>
+      <c r="X2" s="101">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="101">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="101">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="101">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="101">
+        <v>0</v>
+      </c>
+      <c r="AC2" s="101">
+        <v>0</v>
+      </c>
+      <c r="AD2" s="101">
+        <v>0</v>
+      </c>
+      <c r="AE2" s="101">
+        <v>0</v>
+      </c>
+      <c r="AF2" s="101">
+        <v>0</v>
+      </c>
+      <c r="AG2" s="101">
+        <v>0</v>
+      </c>
+      <c r="AH2" s="101">
+        <v>0</v>
+      </c>
+      <c r="AI2" s="101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A3" s="102" t="s">
+        <v>516</v>
+      </c>
+      <c r="B3" s="101">
+        <v>1.7409687867E+16</v>
+      </c>
+      <c r="C3" s="101">
+        <v>1.8221981625596724E+16</v>
+      </c>
+      <c r="D3" s="101">
+        <v>1.9072175038414468E+16</v>
+      </c>
+      <c r="E3" s="101">
+        <v>1.9962036411284556E+16</v>
+      </c>
+      <c r="F3" s="101">
+        <v>2.0893416554894284E+16</v>
+      </c>
+      <c r="G3" s="101">
+        <v>2.1868252634263156E+16</v>
+      </c>
+      <c r="H3" s="101">
+        <v>2.25794546557757E+16</v>
+      </c>
+      <c r="I3" s="101">
+        <v>2.3313786477545396E+16</v>
+      </c>
+      <c r="J3" s="101">
+        <v>2.4072000329801852E+16</v>
+      </c>
+      <c r="K3" s="101">
+        <v>2.4854872906899392E+16</v>
+      </c>
+      <c r="L3" s="101">
+        <v>2.566320616294236E+16</v>
+      </c>
+      <c r="M3" s="101">
+        <v>2.6156447613457524E+16</v>
+      </c>
+      <c r="N3" s="101">
+        <v>2.6659169061404092E+16</v>
+      </c>
+      <c r="O3" s="101">
+        <v>2.71715527103483E+16</v>
+      </c>
+      <c r="P3" s="101">
+        <v>2.7693784265770788E+16</v>
+      </c>
+      <c r="Q3" s="101">
+        <v>2.8226053002372664E+16</v>
+      </c>
+      <c r="R3" s="101">
+        <v>2.8417166902909564E+16</v>
+      </c>
+      <c r="S3" s="101">
+        <v>2.8609574803814684E+16</v>
+      </c>
+      <c r="T3" s="101">
+        <v>2.8803285466548848E+16</v>
+      </c>
+      <c r="U3" s="101">
+        <v>2.8998307711895276E+16</v>
+      </c>
+      <c r="V3" s="101">
+        <v>2.9194650420361236E+16</v>
+      </c>
+      <c r="W3" s="101">
+        <v>2.9184845332058848E+16</v>
+      </c>
+      <c r="X3" s="101">
+        <v>2.9175043536817184E+16</v>
+      </c>
+      <c r="Y3" s="101">
+        <v>2.916524503353026E+16</v>
+      </c>
+      <c r="Z3" s="101">
+        <v>2.9155449821092468E+16</v>
+      </c>
+      <c r="AA3" s="101">
+        <v>2.9145657898398568E+16</v>
+      </c>
+      <c r="AB3" s="101">
+        <v>2.8988776308365136E+16</v>
+      </c>
+      <c r="AC3" s="101">
+        <v>2.8832739160868472E+16</v>
+      </c>
+      <c r="AD3" s="101">
+        <v>2.8677541910549248E+16</v>
+      </c>
+      <c r="AE3" s="101">
+        <v>2.8523180036514332E+16</v>
+      </c>
+      <c r="AF3" s="101">
+        <v>2.8369649042205088E+16</v>
+      </c>
+      <c r="AG3" s="101">
+        <v>2.8369649042205088E+16</v>
+      </c>
+      <c r="AH3" s="101">
+        <v>2.8369649042205088E+16</v>
+      </c>
+      <c r="AI3" s="101">
+        <v>2.8369649042205088E+16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A4" s="102" t="s">
+        <v>517</v>
+      </c>
+      <c r="B4" s="101">
+        <v>1175328000</v>
+      </c>
+      <c r="C4" s="101">
+        <v>1214506491.7213566</v>
+      </c>
+      <c r="D4" s="101">
+        <v>1254990962.8914802</v>
+      </c>
+      <c r="E4" s="101">
+        <v>1296824947.1495094</v>
+      </c>
+      <c r="F4" s="101">
+        <v>1340053429.2889171</v>
+      </c>
+      <c r="G4" s="101">
+        <v>1384722893.6304212</v>
+      </c>
+      <c r="H4" s="101">
+        <v>1449342887.8482506</v>
+      </c>
+      <c r="I4" s="101">
+        <v>1516978462.7804024</v>
+      </c>
+      <c r="J4" s="101">
+        <v>1587770344.6394777</v>
+      </c>
+      <c r="K4" s="101">
+        <v>1661865826.8199208</v>
+      </c>
+      <c r="L4" s="101">
+        <v>1739419076.3645723</v>
+      </c>
+      <c r="M4" s="101">
+        <v>1816809204.9845138</v>
+      </c>
+      <c r="N4" s="101">
+        <v>1897642570.5386672</v>
+      </c>
+      <c r="O4" s="101">
+        <v>1982072369.3170054</v>
+      </c>
+      <c r="P4" s="101">
+        <v>2070258613.6095941</v>
+      </c>
+      <c r="Q4" s="101">
+        <v>2162368434.9636559</v>
+      </c>
+      <c r="R4" s="101">
+        <v>2254335327.7793608</v>
+      </c>
+      <c r="S4" s="101">
+        <v>2350213630.5275354</v>
+      </c>
+      <c r="T4" s="101">
+        <v>2450169697.9385767</v>
+      </c>
+      <c r="U4" s="101">
+        <v>2554376959.9144449</v>
+      </c>
+      <c r="V4" s="101">
+        <v>2663016222.4401703</v>
+      </c>
+      <c r="W4" s="101">
+        <v>2782500363.6382184</v>
+      </c>
+      <c r="X4" s="101">
+        <v>2907345516.1127028</v>
+      </c>
+      <c r="Y4" s="101">
+        <v>3037792217.5753059</v>
+      </c>
+      <c r="Z4" s="101">
+        <v>3174091798.1773744</v>
+      </c>
+      <c r="AA4" s="101">
+        <v>3316506864.7448153</v>
+      </c>
+      <c r="AB4" s="101">
+        <v>3474467101.4868736</v>
+      </c>
+      <c r="AC4" s="101">
+        <v>3639950746.866148</v>
+      </c>
+      <c r="AD4" s="101">
+        <v>3813316129.5271754</v>
+      </c>
+      <c r="AE4" s="101">
+        <v>3994938644.7692084</v>
+      </c>
+      <c r="AF4" s="101">
+        <v>4185211567.4053259</v>
+      </c>
+      <c r="AG4" s="101">
+        <v>4185211567.4053259</v>
+      </c>
+      <c r="AH4" s="101">
+        <v>4185211567.4053259</v>
+      </c>
+      <c r="AI4" s="101">
+        <v>4185211567.4053259</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A5" s="102" t="s">
+        <v>518</v>
+      </c>
+      <c r="B5" s="101">
+        <v>140502600000000</v>
+      </c>
+      <c r="C5" s="101">
+        <v>140502600000000</v>
+      </c>
+      <c r="D5" s="101">
+        <v>140502600000000</v>
+      </c>
+      <c r="E5" s="101">
+        <v>140502600000000</v>
+      </c>
+      <c r="F5" s="101">
+        <v>140502600000000</v>
+      </c>
+      <c r="G5" s="101">
+        <v>140502600000000</v>
+      </c>
+      <c r="H5" s="101">
+        <v>140502600000000</v>
+      </c>
+      <c r="I5" s="101">
+        <v>140502600000000</v>
+      </c>
+      <c r="J5" s="101">
+        <v>140502600000000</v>
+      </c>
+      <c r="K5" s="101">
+        <v>140502600000000</v>
+      </c>
+      <c r="L5" s="101">
+        <v>140502600000000</v>
+      </c>
+      <c r="M5" s="101">
+        <v>140502600000000</v>
+      </c>
+      <c r="N5" s="101">
+        <v>140502600000000</v>
+      </c>
+      <c r="O5" s="101">
+        <v>140502600000000</v>
+      </c>
+      <c r="P5" s="101">
+        <v>140502600000000</v>
+      </c>
+      <c r="Q5" s="101">
+        <v>140502600000000</v>
+      </c>
+      <c r="R5" s="101">
+        <v>140502600000000</v>
+      </c>
+      <c r="S5" s="101">
+        <v>140502600000000</v>
+      </c>
+      <c r="T5" s="101">
+        <v>140502600000000</v>
+      </c>
+      <c r="U5" s="101">
+        <v>140502600000000</v>
+      </c>
+      <c r="V5" s="101">
+        <v>140502600000000</v>
+      </c>
+      <c r="W5" s="101">
+        <v>140502600000000</v>
+      </c>
+      <c r="X5" s="101">
+        <v>140502600000000</v>
+      </c>
+      <c r="Y5" s="101">
+        <v>140502600000000</v>
+      </c>
+      <c r="Z5" s="101">
+        <v>140502600000000</v>
+      </c>
+      <c r="AA5" s="101">
+        <v>140502600000000</v>
+      </c>
+      <c r="AB5" s="101">
+        <v>140502600000000</v>
+      </c>
+      <c r="AC5" s="101">
+        <v>140502600000000</v>
+      </c>
+      <c r="AD5" s="101">
+        <v>140502600000000</v>
+      </c>
+      <c r="AE5" s="101">
+        <v>140502600000000</v>
+      </c>
+      <c r="AF5" s="101">
+        <v>140502600000000</v>
+      </c>
+      <c r="AG5" s="101">
+        <v>140502600000000</v>
+      </c>
+      <c r="AH5" s="101">
+        <v>140502600000000</v>
+      </c>
+      <c r="AI5" s="101">
+        <v>140502600000000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A6" s="102" t="s">
+        <v>519</v>
+      </c>
+      <c r="B6" s="101">
+        <v>0</v>
+      </c>
+      <c r="C6" s="101">
+        <v>0</v>
+      </c>
+      <c r="D6" s="101">
+        <v>0</v>
+      </c>
+      <c r="E6" s="101">
+        <v>0</v>
+      </c>
+      <c r="F6" s="101">
+        <v>0</v>
+      </c>
+      <c r="G6" s="101">
+        <v>0</v>
+      </c>
+      <c r="H6" s="101">
+        <v>0</v>
+      </c>
+      <c r="I6" s="101">
+        <v>0</v>
+      </c>
+      <c r="J6" s="101">
+        <v>0</v>
+      </c>
+      <c r="K6" s="101">
+        <v>0</v>
+      </c>
+      <c r="L6" s="101">
+        <v>0</v>
+      </c>
+      <c r="M6" s="101">
+        <v>0</v>
+      </c>
+      <c r="N6" s="101">
+        <v>0</v>
+      </c>
+      <c r="O6" s="101">
+        <v>0</v>
+      </c>
+      <c r="P6" s="101">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="101">
+        <v>0</v>
+      </c>
+      <c r="R6" s="101">
+        <v>0</v>
+      </c>
+      <c r="S6" s="101">
+        <v>0</v>
+      </c>
+      <c r="T6" s="101">
+        <v>0</v>
+      </c>
+      <c r="U6" s="101">
+        <v>0</v>
+      </c>
+      <c r="V6" s="101">
+        <v>0</v>
+      </c>
+      <c r="W6" s="101">
+        <v>0</v>
+      </c>
+      <c r="X6" s="101">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="101">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="101">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="101">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="101">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="101">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="101">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="101">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="101">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="101">
+        <v>0</v>
+      </c>
+      <c r="AH6" s="101">
+        <v>0</v>
+      </c>
+      <c r="AI6" s="101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A7" s="102" t="s">
+        <v>520</v>
+      </c>
+      <c r="B7" s="101">
+        <v>0</v>
+      </c>
+      <c r="C7" s="101">
+        <v>0</v>
+      </c>
+      <c r="D7" s="101">
+        <v>0</v>
+      </c>
+      <c r="E7" s="101">
+        <v>0</v>
+      </c>
+      <c r="F7" s="101">
+        <v>0</v>
+      </c>
+      <c r="G7" s="101">
+        <v>0</v>
+      </c>
+      <c r="H7" s="101">
+        <v>0</v>
+      </c>
+      <c r="I7" s="101">
+        <v>0</v>
+      </c>
+      <c r="J7" s="101">
+        <v>0</v>
+      </c>
+      <c r="K7" s="101">
+        <v>0</v>
+      </c>
+      <c r="L7" s="101">
+        <v>0</v>
+      </c>
+      <c r="M7" s="101">
+        <v>0</v>
+      </c>
+      <c r="N7" s="101">
+        <v>0</v>
+      </c>
+      <c r="O7" s="101">
+        <v>0</v>
+      </c>
+      <c r="P7" s="101">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="101">
+        <v>0</v>
+      </c>
+      <c r="R7" s="101">
+        <v>0</v>
+      </c>
+      <c r="S7" s="101">
+        <v>0</v>
+      </c>
+      <c r="T7" s="101">
+        <v>0</v>
+      </c>
+      <c r="U7" s="101">
+        <v>0</v>
+      </c>
+      <c r="V7" s="101">
+        <v>0</v>
+      </c>
+      <c r="W7" s="101">
+        <v>0</v>
+      </c>
+      <c r="X7" s="101">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="101">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="101">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="101">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="101">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="101">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="101">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="101">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="101">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="101">
+        <v>0</v>
+      </c>
+      <c r="AH7" s="101">
+        <v>0</v>
+      </c>
+      <c r="AI7" s="101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A8" s="102" t="s">
+        <v>521</v>
+      </c>
+      <c r="B8" s="101">
+        <v>0</v>
+      </c>
+      <c r="C8" s="101">
+        <v>0</v>
+      </c>
+      <c r="D8" s="101">
+        <v>0</v>
+      </c>
+      <c r="E8" s="101">
+        <v>0</v>
+      </c>
+      <c r="F8" s="101">
+        <v>0</v>
+      </c>
+      <c r="G8" s="101">
+        <v>0</v>
+      </c>
+      <c r="H8" s="101">
+        <v>0</v>
+      </c>
+      <c r="I8" s="101">
+        <v>0</v>
+      </c>
+      <c r="J8" s="101">
+        <v>0</v>
+      </c>
+      <c r="K8" s="101">
+        <v>0</v>
+      </c>
+      <c r="L8" s="101">
+        <v>0</v>
+      </c>
+      <c r="M8" s="101">
+        <v>0</v>
+      </c>
+      <c r="N8" s="101">
+        <v>0</v>
+      </c>
+      <c r="O8" s="101">
+        <v>0</v>
+      </c>
+      <c r="P8" s="101">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="101">
+        <v>0</v>
+      </c>
+      <c r="R8" s="101">
+        <v>0</v>
+      </c>
+      <c r="S8" s="101">
+        <v>0</v>
+      </c>
+      <c r="T8" s="101">
+        <v>0</v>
+      </c>
+      <c r="U8" s="101">
+        <v>0</v>
+      </c>
+      <c r="V8" s="101">
+        <v>0</v>
+      </c>
+      <c r="W8" s="101">
+        <v>0</v>
+      </c>
+      <c r="X8" s="101">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="101">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="101">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="101">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="101">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="101">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="101">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="101">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="101">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="101">
+        <v>0</v>
+      </c>
+      <c r="AH8" s="101">
+        <v>0</v>
+      </c>
+      <c r="AI8" s="101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A9" s="102" t="s">
+        <v>522</v>
+      </c>
+      <c r="B9" s="103">
+        <v>3011480623692003.5</v>
+      </c>
+      <c r="C9" s="103">
+        <v>3067309568052765.5</v>
+      </c>
+      <c r="D9" s="103">
+        <v>3124173508622341.5</v>
+      </c>
+      <c r="E9" s="103">
+        <v>3182091632887877</v>
+      </c>
+      <c r="F9" s="103">
+        <v>3241083484047638.5</v>
+      </c>
+      <c r="G9" s="103">
+        <v>3301168967605438.5</v>
+      </c>
+      <c r="H9" s="103">
+        <v>3358488650742228.5</v>
+      </c>
+      <c r="I9" s="103">
+        <v>3416803601345525.5</v>
+      </c>
+      <c r="J9" s="103">
+        <v>3476131100692470.5</v>
+      </c>
+      <c r="K9" s="103">
+        <v>3536488730122799.5</v>
+      </c>
+      <c r="L9" s="103">
+        <v>3597894376248967</v>
+      </c>
+      <c r="M9" s="103">
+        <v>3656715600132889</v>
+      </c>
+      <c r="N9" s="103">
+        <v>3716498479923676.5</v>
+      </c>
+      <c r="O9" s="103">
+        <v>3777258737532950</v>
+      </c>
+      <c r="P9" s="103">
+        <v>3839012351906578.5</v>
+      </c>
+      <c r="Q9" s="103">
+        <v>3901775563226879.5</v>
+      </c>
+      <c r="R9" s="103">
+        <v>3962112285390023.5</v>
+      </c>
+      <c r="S9" s="103">
+        <v>4023382049442020</v>
+      </c>
+      <c r="T9" s="103">
+        <v>4085599283862494</v>
+      </c>
+      <c r="U9" s="103">
+        <v>4148778640251839.5</v>
+      </c>
+      <c r="V9" s="103">
+        <v>4212934996781541</v>
+      </c>
+      <c r="W9" s="103">
+        <v>4274803698456875.5</v>
+      </c>
+      <c r="X9" s="103">
+        <v>4337580967734111</v>
+      </c>
+      <c r="Y9" s="103">
+        <v>4401280147306158</v>
+      </c>
+      <c r="Z9" s="103">
+        <v>4465914775808918.5</v>
+      </c>
+      <c r="AA9" s="103">
+        <v>4531498590698791</v>
+      </c>
+      <c r="AB9" s="103">
+        <v>4594917822444293</v>
+      </c>
+      <c r="AC9" s="103">
+        <v>4659224619059272</v>
+      </c>
+      <c r="AD9" s="103">
+        <v>4724431402192112</v>
+      </c>
+      <c r="AE9" s="103">
+        <v>4790550767334659</v>
+      </c>
+      <c r="AF9" s="103">
+        <v>4857595486255192</v>
+      </c>
+      <c r="AG9" s="103">
+        <v>4857595486255192</v>
+      </c>
+      <c r="AH9" s="103">
+        <v>4857595486255192</v>
+      </c>
+      <c r="AI9" s="103">
+        <v>4857595486255192</v>
+      </c>
+    </row>
+    <row r="10" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A10" s="102" t="s">
+        <v>523</v>
+      </c>
+      <c r="B10" s="103">
+        <v>1668106715464803.3</v>
+      </c>
+      <c r="C10" s="103">
+        <v>1668106715464803.3</v>
+      </c>
+      <c r="D10" s="103">
+        <v>1668106715464803.3</v>
+      </c>
+      <c r="E10" s="103">
+        <v>1668106715464803.3</v>
+      </c>
+      <c r="F10" s="103">
+        <v>1668106715464803.3</v>
+      </c>
+      <c r="G10" s="103">
+        <v>1668106715464803.3</v>
+      </c>
+      <c r="H10" s="103">
+        <v>1668106715464803.3</v>
+      </c>
+      <c r="I10" s="103">
+        <v>1668106715464803.3</v>
+      </c>
+      <c r="J10" s="103">
+        <v>1668106715464803.3</v>
+      </c>
+      <c r="K10" s="103">
+        <v>1668106715464803.3</v>
+      </c>
+      <c r="L10" s="103">
+        <v>1668106715464803.3</v>
+      </c>
+      <c r="M10" s="103">
+        <v>1668106715464803.3</v>
+      </c>
+      <c r="N10" s="103">
+        <v>1668106715464803.3</v>
+      </c>
+      <c r="O10" s="103">
+        <v>1668106715464803.3</v>
+      </c>
+      <c r="P10" s="103">
+        <v>1668106715464803.3</v>
+      </c>
+      <c r="Q10" s="103">
+        <v>1668106715464803.3</v>
+      </c>
+      <c r="R10" s="103">
+        <v>1668106715464803.3</v>
+      </c>
+      <c r="S10" s="103">
+        <v>1668106715464803.3</v>
+      </c>
+      <c r="T10" s="103">
+        <v>1668106715464803.3</v>
+      </c>
+      <c r="U10" s="103">
+        <v>1668106715464803.3</v>
+      </c>
+      <c r="V10" s="103">
+        <v>1668106715464803.3</v>
+      </c>
+      <c r="W10" s="103">
+        <v>1668106715464803.3</v>
+      </c>
+      <c r="X10" s="103">
+        <v>1668106715464803.3</v>
+      </c>
+      <c r="Y10" s="103">
+        <v>1668106715464803.3</v>
+      </c>
+      <c r="Z10" s="103">
+        <v>1668106715464803.3</v>
+      </c>
+      <c r="AA10" s="103">
+        <v>1668106715464803.3</v>
+      </c>
+      <c r="AB10" s="103">
+        <v>1668106715464803.3</v>
+      </c>
+      <c r="AC10" s="103">
+        <v>1668106715464803.3</v>
+      </c>
+      <c r="AD10" s="103">
+        <v>1668106715464803.3</v>
+      </c>
+      <c r="AE10" s="103">
+        <v>1668106715464803.3</v>
+      </c>
+      <c r="AF10" s="103">
+        <v>1668106715464803.3</v>
+      </c>
+      <c r="AG10" s="103">
+        <v>1668106715464803.3</v>
+      </c>
+      <c r="AH10" s="103">
+        <v>1668106715464803.3</v>
+      </c>
+      <c r="AI10" s="103">
+        <v>1668106715464803.3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A11" s="102" t="s">
+        <v>524</v>
+      </c>
+      <c r="B11" s="103">
+        <v>4801883515538662</v>
+      </c>
+      <c r="C11" s="103">
+        <v>4801883515538662</v>
+      </c>
+      <c r="D11" s="103">
+        <v>4801883515538662</v>
+      </c>
+      <c r="E11" s="103">
+        <v>4801883515538662</v>
+      </c>
+      <c r="F11" s="103">
+        <v>4801883515538662</v>
+      </c>
+      <c r="G11" s="103">
+        <v>4801883515538662</v>
+      </c>
+      <c r="H11" s="103">
+        <v>4801883515538662</v>
+      </c>
+      <c r="I11" s="103">
+        <v>4801883515538662</v>
+      </c>
+      <c r="J11" s="103">
+        <v>4801883515538662</v>
+      </c>
+      <c r="K11" s="103">
+        <v>4801883515538662</v>
+      </c>
+      <c r="L11" s="103">
+        <v>4801883515538662</v>
+      </c>
+      <c r="M11" s="103">
+        <v>4801883515538662</v>
+      </c>
+      <c r="N11" s="103">
+        <v>4801883515538662</v>
+      </c>
+      <c r="O11" s="103">
+        <v>4801883515538662</v>
+      </c>
+      <c r="P11" s="103">
+        <v>4801883515538662</v>
+      </c>
+      <c r="Q11" s="103">
+        <v>4801883515538662</v>
+      </c>
+      <c r="R11" s="103">
+        <v>4801883515538662</v>
+      </c>
+      <c r="S11" s="103">
+        <v>4801883515538662</v>
+      </c>
+      <c r="T11" s="103">
+        <v>4801883515538662</v>
+      </c>
+      <c r="U11" s="103">
+        <v>4801883515538662</v>
+      </c>
+      <c r="V11" s="103">
+        <v>4801883515538662</v>
+      </c>
+      <c r="W11" s="103">
+        <v>4801883515538662</v>
+      </c>
+      <c r="X11" s="103">
+        <v>4801883515538662</v>
+      </c>
+      <c r="Y11" s="103">
+        <v>4801883515538662</v>
+      </c>
+      <c r="Z11" s="103">
+        <v>4801883515538662</v>
+      </c>
+      <c r="AA11" s="103">
+        <v>4801883515538662</v>
+      </c>
+      <c r="AB11" s="103">
+        <v>4801883515538662</v>
+      </c>
+      <c r="AC11" s="103">
+        <v>4801883515538662</v>
+      </c>
+      <c r="AD11" s="103">
+        <v>4801883515538662</v>
+      </c>
+      <c r="AE11" s="103">
+        <v>4801883515538662</v>
+      </c>
+      <c r="AF11" s="103">
+        <v>4801883515538662</v>
+      </c>
+      <c r="AG11" s="103">
+        <v>4801883515538662</v>
+      </c>
+      <c r="AH11" s="103">
+        <v>4801883515538662</v>
+      </c>
+      <c r="AI11" s="103">
+        <v>4801883515538662</v>
+      </c>
+    </row>
+    <row r="12" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A12" s="102" t="s">
+        <v>525</v>
+      </c>
+      <c r="B12" s="101">
+        <v>44278077600000</v>
+      </c>
+      <c r="C12" s="101">
+        <v>44278077600000</v>
+      </c>
+      <c r="D12" s="101">
+        <v>44278077600000</v>
+      </c>
+      <c r="E12" s="101">
+        <v>54407099510073.391</v>
+      </c>
+      <c r="F12" s="101">
+        <v>66853229352916.359</v>
+      </c>
+      <c r="G12" s="101">
+        <v>82146527110605.172</v>
+      </c>
+      <c r="H12" s="101">
+        <v>93706924067730.297</v>
+      </c>
+      <c r="I12" s="101">
+        <v>106894203895099.78</v>
+      </c>
+      <c r="J12" s="101">
+        <v>121937316159351.41</v>
+      </c>
+      <c r="K12" s="101">
+        <v>139097430266069.17</v>
+      </c>
+      <c r="L12" s="101">
+        <v>158672469724848.59</v>
+      </c>
+      <c r="M12" s="101">
+        <v>171783754941043.63</v>
+      </c>
+      <c r="N12" s="101">
+        <v>185978440449164</v>
+      </c>
+      <c r="O12" s="101">
+        <v>201346048837818.66</v>
+      </c>
+      <c r="P12" s="101">
+        <v>217983500048128.75</v>
+      </c>
+      <c r="Q12" s="101">
+        <v>235995722625312.88</v>
+      </c>
+      <c r="R12" s="101">
+        <v>254001480559102.5</v>
+      </c>
+      <c r="S12" s="101">
+        <v>273381023217308.38</v>
+      </c>
+      <c r="T12" s="101">
+        <v>294239166208136.44</v>
+      </c>
+      <c r="U12" s="101">
+        <v>316688722252825.25</v>
+      </c>
+      <c r="V12" s="101">
+        <v>340851111341117.5</v>
+      </c>
+      <c r="W12" s="101">
+        <v>364018491582454.19</v>
+      </c>
+      <c r="X12" s="101">
+        <v>388760540320938.69</v>
+      </c>
+      <c r="Y12" s="101">
+        <v>415184286527912.56</v>
+      </c>
+      <c r="Z12" s="101">
+        <v>443404033849182.06</v>
+      </c>
+      <c r="AA12" s="101">
+        <v>473541855058883.13</v>
+      </c>
+      <c r="AB12" s="101">
+        <v>504264413088096.69</v>
+      </c>
+      <c r="AC12" s="101">
+        <v>536980196344974.69</v>
+      </c>
+      <c r="AD12" s="101">
+        <v>571818521756982</v>
+      </c>
+      <c r="AE12" s="101">
+        <v>608917096105121.75</v>
+      </c>
+      <c r="AF12" s="101">
+        <v>648422560342794.25</v>
+      </c>
+      <c r="AG12" s="101">
+        <v>690491069229100.75</v>
+      </c>
+      <c r="AH12" s="101">
+        <v>735288908567731</v>
+      </c>
+      <c r="AI12" s="101">
+        <v>782993152491217.38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A13" s="102" t="s">
+        <v>526</v>
+      </c>
+      <c r="B13" s="101">
+        <v>11069519400000</v>
+      </c>
+      <c r="C13" s="101">
+        <v>11069519400000</v>
+      </c>
+      <c r="D13" s="101">
+        <v>11069519400000</v>
+      </c>
+      <c r="E13" s="101">
+        <v>13601774877518.348</v>
+      </c>
+      <c r="F13" s="101">
+        <v>16713307338229.09</v>
+      </c>
+      <c r="G13" s="101">
+        <v>20536631777651.293</v>
+      </c>
+      <c r="H13" s="101">
+        <v>23426731016932.574</v>
+      </c>
+      <c r="I13" s="101">
+        <v>26723550973774.945</v>
+      </c>
+      <c r="J13" s="101">
+        <v>30484329039837.852</v>
+      </c>
+      <c r="K13" s="101">
+        <v>34774357566517.293</v>
+      </c>
+      <c r="L13" s="101">
+        <v>39668117431212.148</v>
+      </c>
+      <c r="M13" s="101">
+        <v>42945938735260.906</v>
+      </c>
+      <c r="N13" s="101">
+        <v>46494610112291</v>
+      </c>
+      <c r="O13" s="101">
+        <v>50336512209454.664</v>
+      </c>
+      <c r="P13" s="101">
+        <v>54495875012032.188</v>
+      </c>
+      <c r="Q13" s="101">
+        <v>58998930656328.219</v>
+      </c>
+      <c r="R13" s="101">
+        <v>63500370139775.625</v>
+      </c>
+      <c r="S13" s="101">
+        <v>68345255804327.094</v>
+      </c>
+      <c r="T13" s="101">
+        <v>73559791552034.109</v>
+      </c>
+      <c r="U13" s="101">
+        <v>79172180563206.313</v>
+      </c>
+      <c r="V13" s="101">
+        <v>85212777835279.375</v>
+      </c>
+      <c r="W13" s="101">
+        <v>91004622895613.547</v>
+      </c>
+      <c r="X13" s="101">
+        <v>97190135080234.672</v>
+      </c>
+      <c r="Y13" s="101">
+        <v>103796071631978.14</v>
+      </c>
+      <c r="Z13" s="101">
+        <v>110851008462295.52</v>
+      </c>
+      <c r="AA13" s="101">
+        <v>118385463764720.78</v>
+      </c>
+      <c r="AB13" s="101">
+        <v>126066103272024.17</v>
+      </c>
+      <c r="AC13" s="101">
+        <v>134245049086243.67</v>
+      </c>
+      <c r="AD13" s="101">
+        <v>142954630439245.5</v>
+      </c>
+      <c r="AE13" s="101">
+        <v>152229274026280.44</v>
+      </c>
+      <c r="AF13" s="101">
+        <v>162105640085698.56</v>
+      </c>
+      <c r="AG13" s="101">
+        <v>172622767307275.19</v>
+      </c>
+      <c r="AH13" s="101">
+        <v>183822227141932.75</v>
+      </c>
+      <c r="AI13" s="101">
+        <v>195748288122804.34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A14" s="102" t="s">
+        <v>527</v>
+      </c>
+      <c r="B14" s="101">
+        <v>670364225570218.5</v>
+      </c>
+      <c r="C14">
+        <v>670364225570218.5</v>
+      </c>
+      <c r="D14">
+        <v>670364225570218.5</v>
+      </c>
+      <c r="E14">
+        <v>670364225570218.5</v>
+      </c>
+      <c r="F14">
+        <v>670364225570218.5</v>
+      </c>
+      <c r="G14">
+        <v>670364225570218.5</v>
+      </c>
+      <c r="H14">
+        <v>670364225570218.5</v>
+      </c>
+      <c r="I14">
+        <v>670364225570218.5</v>
+      </c>
+      <c r="J14">
+        <v>670364225570218.5</v>
+      </c>
+      <c r="K14">
+        <v>670364225570218.5</v>
+      </c>
+      <c r="L14">
+        <v>670364225570218.5</v>
+      </c>
+      <c r="M14">
+        <v>670364225570218.5</v>
+      </c>
+      <c r="N14">
+        <v>670364225570218.5</v>
+      </c>
+      <c r="O14">
+        <v>670364225570218.5</v>
+      </c>
+      <c r="P14">
+        <v>670364225570218.5</v>
+      </c>
+      <c r="Q14">
+        <v>670364225570218.5</v>
+      </c>
+      <c r="R14">
+        <v>670364225570218.5</v>
+      </c>
+      <c r="S14">
+        <v>670364225570218.5</v>
+      </c>
+      <c r="T14">
+        <v>670364225570218.5</v>
+      </c>
+      <c r="U14">
+        <v>670364225570218.5</v>
+      </c>
+      <c r="V14">
+        <v>670364225570218.5</v>
+      </c>
+      <c r="W14">
+        <v>670364225570218.5</v>
+      </c>
+      <c r="X14">
+        <v>670364225570218.5</v>
+      </c>
+      <c r="Y14">
+        <v>670364225570218.5</v>
+      </c>
+      <c r="Z14">
+        <v>670364225570218.5</v>
+      </c>
+      <c r="AA14">
+        <v>670364225570218.5</v>
+      </c>
+      <c r="AB14">
+        <v>670364225570218.5</v>
+      </c>
+      <c r="AC14">
+        <v>670364225570218.5</v>
+      </c>
+      <c r="AD14">
+        <v>670364225570218.5</v>
+      </c>
+      <c r="AE14">
+        <v>670364225570218.5</v>
+      </c>
+      <c r="AF14">
+        <v>670364225570218.5</v>
+      </c>
+      <c r="AG14">
+        <v>670364225570218.5</v>
+      </c>
+      <c r="AH14">
+        <v>670364225570218.5</v>
+      </c>
+      <c r="AI14">
+        <v>670364225570218.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A15" s="102" t="s">
+        <v>528</v>
+      </c>
+      <c r="B15" s="101">
+        <v>0</v>
+      </c>
+      <c r="C15" s="101">
+        <v>0</v>
+      </c>
+      <c r="D15" s="101">
+        <v>0</v>
+      </c>
+      <c r="E15" s="101">
+        <v>0</v>
+      </c>
+      <c r="F15" s="101">
+        <v>0</v>
+      </c>
+      <c r="G15" s="101">
+        <v>0</v>
+      </c>
+      <c r="H15" s="101">
+        <v>0</v>
+      </c>
+      <c r="I15" s="101">
+        <v>0</v>
+      </c>
+      <c r="J15" s="101">
+        <v>0</v>
+      </c>
+      <c r="K15" s="101">
+        <v>0</v>
+      </c>
+      <c r="L15" s="101">
+        <v>0</v>
+      </c>
+      <c r="M15" s="101">
+        <v>0</v>
+      </c>
+      <c r="N15" s="101">
+        <v>0</v>
+      </c>
+      <c r="O15" s="101">
+        <v>0</v>
+      </c>
+      <c r="P15" s="101">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="101">
+        <v>0</v>
+      </c>
+      <c r="R15" s="101">
+        <v>0</v>
+      </c>
+      <c r="S15" s="101">
+        <v>0</v>
+      </c>
+      <c r="T15" s="101">
+        <v>0</v>
+      </c>
+      <c r="U15" s="101">
+        <v>0</v>
+      </c>
+      <c r="V15" s="101">
+        <v>0</v>
+      </c>
+      <c r="W15" s="101">
+        <v>0</v>
+      </c>
+      <c r="X15" s="101">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="101">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="101">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="101">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="101">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="101">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="101">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="101">
+        <v>0</v>
+      </c>
+      <c r="AF15" s="101">
+        <v>0</v>
+      </c>
+      <c r="AG15" s="101">
+        <v>0</v>
+      </c>
+      <c r="AH15" s="101">
+        <v>0</v>
+      </c>
+      <c r="AI15" s="101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A16" s="102" t="s">
+        <v>529</v>
+      </c>
+      <c r="B16" s="101">
+        <v>0</v>
+      </c>
+      <c r="C16" s="101">
+        <v>0</v>
+      </c>
+      <c r="D16" s="101">
+        <v>0</v>
+      </c>
+      <c r="E16" s="101">
+        <v>0</v>
+      </c>
+      <c r="F16" s="101">
+        <v>0</v>
+      </c>
+      <c r="G16" s="101">
+        <v>0</v>
+      </c>
+      <c r="H16" s="101">
+        <v>0</v>
+      </c>
+      <c r="I16" s="101">
+        <v>0</v>
+      </c>
+      <c r="J16" s="101">
+        <v>0</v>
+      </c>
+      <c r="K16" s="101">
+        <v>0</v>
+      </c>
+      <c r="L16" s="101">
+        <v>0</v>
+      </c>
+      <c r="M16" s="101">
+        <v>0</v>
+      </c>
+      <c r="N16" s="101">
+        <v>0</v>
+      </c>
+      <c r="O16" s="101">
+        <v>0</v>
+      </c>
+      <c r="P16" s="101">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="101">
+        <v>0</v>
+      </c>
+      <c r="R16" s="101">
+        <v>0</v>
+      </c>
+      <c r="S16" s="101">
+        <v>0</v>
+      </c>
+      <c r="T16" s="101">
+        <v>0</v>
+      </c>
+      <c r="U16" s="101">
+        <v>0</v>
+      </c>
+      <c r="V16" s="101">
+        <v>0</v>
+      </c>
+      <c r="W16" s="101">
+        <v>0</v>
+      </c>
+      <c r="X16" s="101">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="101">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="101">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="101">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="101">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="101">
+        <v>0</v>
+      </c>
+      <c r="AD16" s="101">
+        <v>0</v>
+      </c>
+      <c r="AE16" s="101">
+        <v>0</v>
+      </c>
+      <c r="AF16" s="101">
+        <v>0</v>
+      </c>
+      <c r="AG16" s="101">
+        <v>0</v>
+      </c>
+      <c r="AH16" s="101">
+        <v>0</v>
+      </c>
+      <c r="AI16" s="101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A17" s="102" t="s">
+        <v>530</v>
+      </c>
+      <c r="B17" s="101">
+        <v>621866666666666.63</v>
+      </c>
+      <c r="C17" s="101">
+        <v>650881455206912.13</v>
+      </c>
+      <c r="D17" s="101">
+        <v>681250003321613.88</v>
+      </c>
+      <c r="E17" s="101">
+        <v>713035474145078</v>
+      </c>
+      <c r="F17" s="101">
+        <v>746303977850073.38</v>
+      </c>
+      <c r="G17" s="101">
+        <v>781124709149490.13</v>
+      </c>
+      <c r="H17" s="101">
+        <v>806528543716962.5</v>
+      </c>
+      <c r="I17" s="101">
+        <v>832758564939616</v>
+      </c>
+      <c r="J17" s="101">
+        <v>859841642162209.75</v>
+      </c>
+      <c r="K17" s="101">
+        <v>887805518577662.25</v>
+      </c>
+      <c r="L17" s="101">
+        <v>916678839646449.13</v>
+      </c>
+      <c r="M17" s="101">
+        <v>934297215061157.38</v>
+      </c>
+      <c r="N17" s="101">
+        <v>952254211963379.5</v>
+      </c>
+      <c r="O17" s="101">
+        <v>970556338587223.75</v>
+      </c>
+      <c r="P17" s="101">
+        <v>989210228253695.63</v>
+      </c>
+      <c r="Q17" s="101">
+        <v>1008222641774841.9</v>
+      </c>
+      <c r="R17" s="101">
+        <v>1015049149245192.4</v>
+      </c>
+      <c r="S17" s="101">
+        <v>1021921877859873.4</v>
+      </c>
+      <c r="T17" s="101">
+        <v>1028841140574549.6</v>
+      </c>
+      <c r="U17" s="101">
+        <v>1035807252463856.5</v>
+      </c>
+      <c r="V17" s="101">
+        <v>1042820530735747.3</v>
+      </c>
+      <c r="W17" s="101">
+        <v>1042470297140202.1</v>
+      </c>
+      <c r="X17" s="101">
+        <v>1042120181171389.4</v>
+      </c>
+      <c r="Y17" s="101">
+        <v>1041770182789803.8</v>
+      </c>
+      <c r="Z17" s="101">
+        <v>1041420301955953.3</v>
+      </c>
+      <c r="AA17" s="101">
+        <v>1041070538630359.4</v>
+      </c>
+      <c r="AB17" s="101">
+        <v>1035466794772298.6</v>
+      </c>
+      <c r="AC17" s="101">
+        <v>1029893214043499.1</v>
+      </c>
+      <c r="AD17" s="101">
+        <v>1024349634085653.6</v>
+      </c>
+      <c r="AE17" s="101">
+        <v>1018835893414376.9</v>
+      </c>
+      <c r="AF17" s="101">
+        <v>1013351831414501.4</v>
+      </c>
+      <c r="AG17" s="101">
+        <v>1013351831414501.4</v>
+      </c>
+      <c r="AH17" s="101">
+        <v>1013351831414501.4</v>
+      </c>
+      <c r="AI17" s="101">
+        <v>1013351831414501.4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A18" s="102" t="s">
+        <v>531</v>
+      </c>
+      <c r="B18" s="101">
+        <v>1496798572416000</v>
+      </c>
+      <c r="C18" s="101">
+        <v>1513189219770922.8</v>
+      </c>
+      <c r="D18" s="101">
+        <v>1529759352412419.5</v>
+      </c>
+      <c r="E18" s="101">
+        <v>1546510935788675.3</v>
+      </c>
+      <c r="F18" s="101">
+        <v>1563445956870455.8</v>
+      </c>
+      <c r="G18" s="101">
+        <v>1580566424386790</v>
+      </c>
+      <c r="H18" s="101">
+        <v>1599743929686187.3</v>
+      </c>
+      <c r="I18" s="101">
+        <v>1619154121637555.5</v>
+      </c>
+      <c r="J18" s="101">
+        <v>1638799823500602.5</v>
+      </c>
+      <c r="K18" s="101">
+        <v>1658683892790526.3</v>
+      </c>
+      <c r="L18" s="101">
+        <v>1678809221693647.8</v>
+      </c>
+      <c r="M18" s="101">
+        <v>1699242597797572.5</v>
+      </c>
+      <c r="N18" s="101">
+        <v>1719924675691795.5</v>
+      </c>
+      <c r="O18" s="101">
+        <v>1740858482413072</v>
+      </c>
+      <c r="P18" s="101">
+        <v>1762047081841283.5</v>
+      </c>
+      <c r="Q18" s="101">
+        <v>1783493575147868.5</v>
+      </c>
+      <c r="R18" s="101">
+        <v>1805269721265278.3</v>
+      </c>
+      <c r="S18" s="101">
+        <v>1827311750336422.5</v>
+      </c>
+      <c r="T18" s="101">
+        <v>1849622908745886.5</v>
+      </c>
+      <c r="U18" s="101">
+        <v>1872206482516046.8</v>
+      </c>
+      <c r="V18" s="101">
+        <v>1895065797791040.5</v>
+      </c>
+      <c r="W18" s="101">
+        <v>1918277945849556.5</v>
+      </c>
+      <c r="X18" s="101">
+        <v>1941774413227284.8</v>
+      </c>
+      <c r="Y18" s="101">
+        <v>1965558682474615.5</v>
+      </c>
+      <c r="Z18" s="101">
+        <v>1989634278798756</v>
+      </c>
+      <c r="AA18" s="101">
+        <v>2014004770586222.5</v>
+      </c>
+      <c r="AB18" s="101">
+        <v>2038752967857663.5</v>
+      </c>
+      <c r="AC18" s="101">
+        <v>2063805272287702.5</v>
+      </c>
+      <c r="AD18" s="101">
+        <v>2089165420761208.5</v>
+      </c>
+      <c r="AE18" s="101">
+        <v>2114837196082089</v>
+      </c>
+      <c r="AF18" s="101">
+        <v>2140824427537546.8</v>
+      </c>
+      <c r="AG18" s="101">
+        <v>2140824427537546.8</v>
+      </c>
+      <c r="AH18" s="101">
+        <v>2140824427537546.8</v>
+      </c>
+      <c r="AI18" s="101">
+        <v>2140824427537546.8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A19" s="102" t="s">
+        <v>532</v>
+      </c>
+      <c r="B19" s="101">
+        <v>401963368680000</v>
+      </c>
+      <c r="C19">
+        <v>401963368680000</v>
+      </c>
+      <c r="D19">
+        <v>401963368680000</v>
+      </c>
+      <c r="E19">
+        <v>401963368680000</v>
+      </c>
+      <c r="F19">
+        <v>401963368680000</v>
+      </c>
+      <c r="G19">
+        <v>401963368680000</v>
+      </c>
+      <c r="H19">
+        <v>401963368680000</v>
+      </c>
+      <c r="I19">
+        <v>401963368680000</v>
+      </c>
+      <c r="J19">
+        <v>401963368680000</v>
+      </c>
+      <c r="K19">
+        <v>401963368680000</v>
+      </c>
+      <c r="L19">
+        <v>401963368680000</v>
+      </c>
+      <c r="M19">
+        <v>401963368680000</v>
+      </c>
+      <c r="N19">
+        <v>401963368680000</v>
+      </c>
+      <c r="O19">
+        <v>401963368680000</v>
+      </c>
+      <c r="P19">
+        <v>401963368680000</v>
+      </c>
+      <c r="Q19">
+        <v>401963368680000</v>
+      </c>
+      <c r="R19">
+        <v>401963368680000</v>
+      </c>
+      <c r="S19">
+        <v>401963368680000</v>
+      </c>
+      <c r="T19">
+        <v>401963368680000</v>
+      </c>
+      <c r="U19">
+        <v>401963368680000</v>
+      </c>
+      <c r="V19">
+        <v>401963368680000</v>
+      </c>
+      <c r="W19">
+        <v>401963368680000</v>
+      </c>
+      <c r="X19">
+        <v>401963368680000</v>
+      </c>
+      <c r="Y19">
+        <v>401963368680000</v>
+      </c>
+      <c r="Z19">
+        <v>401963368680000</v>
+      </c>
+      <c r="AA19">
+        <v>401963368680000</v>
+      </c>
+      <c r="AB19">
+        <v>401963368680000</v>
+      </c>
+      <c r="AC19">
+        <v>401963368680000</v>
+      </c>
+      <c r="AD19">
+        <v>401963368680000</v>
+      </c>
+      <c r="AE19">
+        <v>401963368680000</v>
+      </c>
+      <c r="AF19">
+        <v>401963368680000</v>
+      </c>
+      <c r="AG19">
+        <v>401963368680000</v>
+      </c>
+      <c r="AH19">
+        <v>401963368680000</v>
+      </c>
+      <c r="AI19">
+        <v>401963368680000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A20" s="102" t="s">
+        <v>533</v>
+      </c>
+      <c r="B20" s="103">
+        <v>554773438980000</v>
+      </c>
+      <c r="C20" s="98">
+        <v>554773438980000</v>
+      </c>
+      <c r="D20" s="98">
+        <v>554773438980000</v>
+      </c>
+      <c r="E20" s="98">
+        <v>554773438980000</v>
+      </c>
+      <c r="F20" s="98">
+        <v>554773438980000</v>
+      </c>
+      <c r="G20" s="98">
+        <v>554773438980000</v>
+      </c>
+      <c r="H20" s="98">
+        <v>554773438980000</v>
+      </c>
+      <c r="I20" s="98">
+        <v>554773438980000</v>
+      </c>
+      <c r="J20" s="98">
+        <v>554773438980000</v>
+      </c>
+      <c r="K20" s="98">
+        <v>554773438980000</v>
+      </c>
+      <c r="L20" s="98">
+        <v>554773438980000</v>
+      </c>
+      <c r="M20" s="98">
+        <v>554773438980000</v>
+      </c>
+      <c r="N20" s="98">
+        <v>554773438980000</v>
+      </c>
+      <c r="O20" s="98">
+        <v>554773438980000</v>
+      </c>
+      <c r="P20" s="98">
+        <v>554773438980000</v>
+      </c>
+      <c r="Q20" s="98">
+        <v>554773438980000</v>
+      </c>
+      <c r="R20" s="98">
+        <v>554773438980000</v>
+      </c>
+      <c r="S20" s="98">
+        <v>554773438980000</v>
+      </c>
+      <c r="T20" s="98">
+        <v>554773438980000</v>
+      </c>
+      <c r="U20" s="98">
+        <v>554773438980000</v>
+      </c>
+      <c r="V20" s="98">
+        <v>554773438980000</v>
+      </c>
+      <c r="W20" s="98">
+        <v>554773438980000</v>
+      </c>
+      <c r="X20" s="98">
+        <v>554773438980000</v>
+      </c>
+      <c r="Y20" s="98">
+        <v>554773438980000</v>
+      </c>
+      <c r="Z20" s="98">
+        <v>554773438980000</v>
+      </c>
+      <c r="AA20" s="98">
+        <v>554773438980000</v>
+      </c>
+      <c r="AB20" s="98">
+        <v>554773438980000</v>
+      </c>
+      <c r="AC20" s="98">
+        <v>554773438980000</v>
+      </c>
+      <c r="AD20" s="98">
+        <v>554773438980000</v>
+      </c>
+      <c r="AE20" s="98">
+        <v>554773438980000</v>
+      </c>
+      <c r="AF20" s="98">
+        <v>554773438980000</v>
+      </c>
+      <c r="AG20" s="98">
+        <v>554773438980000</v>
+      </c>
+      <c r="AH20" s="98">
+        <v>554773438980000</v>
+      </c>
+      <c r="AI20" s="98">
+        <v>554773438980000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A21" s="102" t="s">
+        <v>534</v>
+      </c>
+      <c r="B21" s="101">
+        <v>292325783696246.81</v>
+      </c>
+      <c r="C21" s="101">
+        <v>325524222333581</v>
+      </c>
+      <c r="D21" s="101">
+        <v>360426895057260.06</v>
+      </c>
+      <c r="E21" s="101">
+        <v>397033801867308.63</v>
+      </c>
+      <c r="F21" s="101">
+        <v>435344942763714.56</v>
+      </c>
+      <c r="G21" s="101">
+        <v>475360317746471.19</v>
+      </c>
+      <c r="H21" s="101">
+        <v>499326109585869.19</v>
+      </c>
+      <c r="I21" s="101">
+        <v>523291901425259.5</v>
+      </c>
+      <c r="J21" s="101">
+        <v>547257693264657.31</v>
+      </c>
+      <c r="K21" s="101">
+        <v>571223485104055.38</v>
+      </c>
+      <c r="L21" s="101">
+        <v>595189276943453.25</v>
+      </c>
+      <c r="M21" s="101">
+        <v>619155068782843.5</v>
+      </c>
+      <c r="N21" s="101">
+        <v>643120860622241.63</v>
+      </c>
+      <c r="O21" s="101">
+        <v>667086652461639.5</v>
+      </c>
+      <c r="P21" s="101">
+        <v>691052444301037.5</v>
+      </c>
+      <c r="Q21" s="101">
+        <v>750789354159276.13</v>
+      </c>
+      <c r="R21" s="101">
+        <v>810526264017515</v>
+      </c>
+      <c r="S21" s="101">
+        <v>870263173875753.75</v>
+      </c>
+      <c r="T21" s="101">
+        <v>930000083733992.63</v>
+      </c>
+      <c r="U21" s="101">
+        <v>989736993592231.38</v>
+      </c>
+      <c r="V21" s="101">
+        <v>1049473903450470.3</v>
+      </c>
+      <c r="W21" s="101">
+        <v>1109210813308708.9</v>
+      </c>
+      <c r="X21" s="101">
+        <v>1168947723166963</v>
+      </c>
+      <c r="Y21" s="101">
+        <v>1228684633025201.8</v>
+      </c>
+      <c r="Z21" s="101">
+        <v>1288421542883440.8</v>
+      </c>
+      <c r="AA21" s="101">
+        <v>1348158452741679.5</v>
+      </c>
+      <c r="AB21" s="101">
+        <v>1407895362599918.3</v>
+      </c>
+      <c r="AC21" s="101">
+        <v>1467632272458157</v>
+      </c>
+      <c r="AD21" s="101">
+        <v>1527369182316395.8</v>
+      </c>
+      <c r="AE21" s="101">
+        <v>1587106092174634.5</v>
+      </c>
+      <c r="AF21" s="101">
+        <v>1646843002032873.3</v>
+      </c>
+      <c r="AG21" s="101">
+        <v>1706579911891112.3</v>
+      </c>
+      <c r="AH21" s="101">
+        <v>1766316821749351.3</v>
+      </c>
+      <c r="AI21" s="101">
+        <v>1826053731607589.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A22" s="102" t="s">
+        <v>535</v>
+      </c>
+      <c r="B22" s="101">
+        <v>0</v>
+      </c>
+      <c r="C22" s="101">
+        <v>0</v>
+      </c>
+      <c r="D22" s="101">
+        <v>0</v>
+      </c>
+      <c r="E22" s="101">
+        <v>0</v>
+      </c>
+      <c r="F22" s="101">
+        <v>0</v>
+      </c>
+      <c r="G22" s="101">
+        <v>0</v>
+      </c>
+      <c r="H22" s="101">
+        <v>0</v>
+      </c>
+      <c r="I22" s="101">
+        <v>0</v>
+      </c>
+      <c r="J22" s="101">
+        <v>0</v>
+      </c>
+      <c r="K22" s="101">
+        <v>0</v>
+      </c>
+      <c r="L22" s="101">
+        <v>0</v>
+      </c>
+      <c r="M22" s="101">
+        <v>0</v>
+      </c>
+      <c r="N22" s="101">
+        <v>0</v>
+      </c>
+      <c r="O22" s="101">
+        <v>0</v>
+      </c>
+      <c r="P22" s="101">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="101">
+        <v>0</v>
+      </c>
+      <c r="R22" s="101">
+        <v>0</v>
+      </c>
+      <c r="S22" s="101">
+        <v>0</v>
+      </c>
+      <c r="T22" s="101">
+        <v>0</v>
+      </c>
+      <c r="U22" s="101">
+        <v>0</v>
+      </c>
+      <c r="V22" s="101">
+        <v>0</v>
+      </c>
+      <c r="W22" s="101">
+        <v>0</v>
+      </c>
+      <c r="X22" s="101">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="101">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="101">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="101">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="101">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="101">
+        <v>0</v>
+      </c>
+      <c r="AD22" s="101">
+        <v>0</v>
+      </c>
+      <c r="AE22" s="101">
+        <v>0</v>
+      </c>
+      <c r="AF22" s="101">
+        <v>0</v>
+      </c>
+      <c r="AG22" s="101">
+        <v>0</v>
+      </c>
+      <c r="AH22" s="101">
+        <v>0</v>
+      </c>
+      <c r="AI22" s="101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A23" s="101"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AI23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="36.265625" customWidth="1"/>
+    <col min="2" max="2" width="12" style="101" bestFit="1" customWidth="1"/>
+    <col min="3" max="35" width="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A1" s="97" t="s">
+        <v>536</v>
+      </c>
+      <c r="B1" s="104">
+        <v>2017</v>
+      </c>
+      <c r="C1" s="100">
+        <v>2018</v>
+      </c>
+      <c r="D1" s="104">
+        <v>2019</v>
+      </c>
+      <c r="E1" s="100">
+        <v>2020</v>
+      </c>
+      <c r="F1" s="104">
+        <v>2021</v>
+      </c>
+      <c r="G1" s="100">
+        <v>2022</v>
+      </c>
+      <c r="H1" s="104">
+        <v>2023</v>
+      </c>
+      <c r="I1" s="100">
+        <v>2024</v>
+      </c>
+      <c r="J1" s="104">
+        <v>2025</v>
+      </c>
+      <c r="K1" s="100">
+        <v>2026</v>
+      </c>
+      <c r="L1" s="104">
+        <v>2027</v>
+      </c>
+      <c r="M1" s="100">
+        <v>2028</v>
+      </c>
+      <c r="N1" s="104">
+        <v>2029</v>
+      </c>
+      <c r="O1" s="100">
+        <v>2030</v>
+      </c>
+      <c r="P1" s="104">
+        <v>2031</v>
+      </c>
+      <c r="Q1" s="100">
+        <v>2032</v>
+      </c>
+      <c r="R1" s="104">
+        <v>2033</v>
+      </c>
+      <c r="S1" s="100">
+        <v>2034</v>
+      </c>
+      <c r="T1" s="104">
+        <v>2035</v>
+      </c>
+      <c r="U1" s="100">
+        <v>2036</v>
+      </c>
+      <c r="V1" s="104">
+        <v>2037</v>
+      </c>
+      <c r="W1" s="100">
+        <v>2038</v>
+      </c>
+      <c r="X1" s="104">
+        <v>2039</v>
+      </c>
+      <c r="Y1" s="100">
+        <v>2040</v>
+      </c>
+      <c r="Z1" s="104">
+        <v>2041</v>
+      </c>
+      <c r="AA1" s="100">
+        <v>2042</v>
+      </c>
+      <c r="AB1" s="104">
+        <v>2043</v>
+      </c>
+      <c r="AC1" s="100">
+        <v>2044</v>
+      </c>
+      <c r="AD1" s="104">
+        <v>2045</v>
+      </c>
+      <c r="AE1" s="100">
+        <v>2046</v>
+      </c>
+      <c r="AF1" s="104">
+        <v>2047</v>
+      </c>
+      <c r="AG1" s="100">
+        <v>2048</v>
+      </c>
+      <c r="AH1" s="104">
+        <v>2049</v>
+      </c>
+      <c r="AI1" s="100">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="2" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A2" s="97" t="s">
+        <v>515</v>
+      </c>
+      <c r="B2" s="101">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>0</v>
+      </c>
+      <c r="AG2">
+        <v>0</v>
+      </c>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A3" s="102" t="s">
+        <v>516</v>
+      </c>
+      <c r="B3" s="101">
+        <v>5368030053750000</v>
+      </c>
+      <c r="C3" s="101">
+        <v>5893802616772879</v>
+      </c>
+      <c r="D3" s="101">
+        <v>6471072057655921</v>
+      </c>
+      <c r="E3" s="101">
+        <v>7104882246345662</v>
+      </c>
+      <c r="F3" s="101">
+        <v>7800771075438063</v>
+      </c>
+      <c r="G3" s="101">
+        <v>8564818847306000</v>
+      </c>
+      <c r="H3" s="101">
+        <v>9139014223093306</v>
+      </c>
+      <c r="I3" s="101">
+        <v>9751704321939376</v>
+      </c>
+      <c r="J3" s="101">
+        <v>1.0405469874664864E+16</v>
+      </c>
+      <c r="K3" s="101">
+        <v>1.1103064627273788E+16</v>
+      </c>
+      <c r="L3" s="101">
+        <v>1.1847426940091826E+16</v>
+      </c>
+      <c r="M3" s="101">
+        <v>1.2581007880115488E+16</v>
+      </c>
+      <c r="N3" s="101">
+        <v>1.3360011425257306E+16</v>
+      </c>
+      <c r="O3" s="101">
+        <v>1.4187250098230388E+16</v>
+      </c>
+      <c r="P3" s="101">
+        <v>1.5065710570368144E+16</v>
+      </c>
+      <c r="Q3" s="101">
+        <v>1.5998564444734338E+16</v>
+      </c>
+      <c r="R3" s="101">
+        <v>1.788543229996649E+16</v>
+      </c>
+      <c r="S3" s="101">
+        <v>1.9994837015640528E+16</v>
+      </c>
+      <c r="T3" s="101">
+        <v>2.23530245496374E+16</v>
+      </c>
+      <c r="U3" s="101">
+        <v>2.4989336303459032E+16</v>
+      </c>
+      <c r="V3" s="101">
+        <v>2.7936574198300396E+16</v>
+      </c>
+      <c r="W3" s="101">
+        <v>3.0200429780735256E+16</v>
+      </c>
+      <c r="X3" s="101">
+        <v>3.2647738139510648E+16</v>
+      </c>
+      <c r="Y3" s="101">
+        <v>3.5293365470778032E+16</v>
+      </c>
+      <c r="Z3" s="101">
+        <v>3.815338266103164E+16</v>
+      </c>
+      <c r="AA3" s="101">
+        <v>4.1245162909849864E+16</v>
+      </c>
+      <c r="AB3" s="101">
+        <v>4.3231808712172808E+16</v>
+      </c>
+      <c r="AC3" s="101">
+        <v>4.5314144803136728E+16</v>
+      </c>
+      <c r="AD3" s="101">
+        <v>4.7496780273768048E+16</v>
+      </c>
+      <c r="AE3" s="101">
+        <v>4.9784546220067712E+16</v>
+      </c>
+      <c r="AF3" s="101">
+        <v>5.2182506436271168E+16</v>
+      </c>
+      <c r="AG3" s="101">
+        <v>5.2182506436271168E+16</v>
+      </c>
+      <c r="AH3" s="101">
+        <v>5.2182506436271168E+16</v>
+      </c>
+      <c r="AI3" s="101">
+        <v>5.2182506436271168E+16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A4" s="102" t="s">
+        <v>517</v>
+      </c>
+      <c r="B4" s="101">
+        <v>944568000</v>
+      </c>
+      <c r="C4" s="101">
+        <v>993855703.87776399</v>
+      </c>
+      <c r="D4" s="101">
+        <v>1045715247.7432708</v>
+      </c>
+      <c r="E4" s="101">
+        <v>1100280830.6036186</v>
+      </c>
+      <c r="F4" s="101">
+        <v>1157693653.9907875</v>
+      </c>
+      <c r="G4" s="101">
+        <v>1218102287.3544676</v>
+      </c>
+      <c r="H4" s="101">
+        <v>1247755023.3735068</v>
+      </c>
+      <c r="I4" s="101">
+        <v>1278129607.4364607</v>
+      </c>
+      <c r="J4" s="101">
+        <v>1309243611.7699921</v>
+      </c>
+      <c r="K4" s="101">
+        <v>1341115036.3682873</v>
+      </c>
+      <c r="L4" s="101">
+        <v>1373762319.4063666</v>
+      </c>
+      <c r="M4" s="101">
+        <v>1412029317.9276049</v>
+      </c>
+      <c r="N4" s="101">
+        <v>1451362267.3452525</v>
+      </c>
+      <c r="O4" s="101">
+        <v>1491790860.3803866</v>
+      </c>
+      <c r="P4" s="101">
+        <v>1533345616.863183</v>
+      </c>
+      <c r="Q4" s="101">
+        <v>1576057906.7725513</v>
+      </c>
+      <c r="R4" s="101">
+        <v>1605166392.5616479</v>
+      </c>
+      <c r="S4" s="101">
+        <v>1634812488.0041039</v>
+      </c>
+      <c r="T4" s="101">
+        <v>1665006122.3054943</v>
+      </c>
+      <c r="U4" s="101">
+        <v>1695757408.0556078</v>
+      </c>
+      <c r="V4" s="101">
+        <v>1727076644.615401</v>
+      </c>
+      <c r="W4" s="101">
+        <v>1751421992.9585621</v>
+      </c>
+      <c r="X4" s="101">
+        <v>1776110520.0412412</v>
+      </c>
+      <c r="Y4" s="101">
+        <v>1801147063.4055259</v>
+      </c>
+      <c r="Z4" s="101">
+        <v>1826536528.784831</v>
+      </c>
+      <c r="AA4" s="101">
+        <v>1852283891.065141</v>
+      </c>
+      <c r="AB4" s="101">
+        <v>1835922871.4717398</v>
+      </c>
+      <c r="AC4" s="101">
+        <v>1819706366.962353</v>
+      </c>
+      <c r="AD4" s="101">
+        <v>1803633101.0511608</v>
+      </c>
+      <c r="AE4" s="101">
+        <v>1787701808.5274019</v>
+      </c>
+      <c r="AF4" s="101">
+        <v>1771911235.3557827</v>
+      </c>
+      <c r="AG4" s="101">
+        <v>1771911235.3557827</v>
+      </c>
+      <c r="AH4" s="101">
+        <v>1771911235.3557827</v>
+      </c>
+      <c r="AI4" s="101">
+        <v>1771911235.3557827</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A5" s="102" t="s">
+        <v>518</v>
+      </c>
+      <c r="B5" s="101">
+        <v>275474702176128.06</v>
+      </c>
+      <c r="C5" s="101">
+        <v>295272552386648</v>
+      </c>
+      <c r="D5" s="101">
+        <v>315070402597168</v>
+      </c>
+      <c r="E5" s="101">
+        <v>334868252807688</v>
+      </c>
+      <c r="F5" s="101">
+        <v>354666103018216</v>
+      </c>
+      <c r="G5" s="101">
+        <v>374463953228736</v>
+      </c>
+      <c r="H5" s="101">
+        <v>390035296090944</v>
+      </c>
+      <c r="I5" s="101">
+        <v>405606638953152</v>
+      </c>
+      <c r="J5" s="101">
+        <v>421177981815360</v>
+      </c>
+      <c r="K5" s="101">
+        <v>436749324677568</v>
+      </c>
+      <c r="L5" s="101">
+        <v>452320667539776.06</v>
+      </c>
+      <c r="M5" s="101">
+        <v>473453204281344</v>
+      </c>
+      <c r="N5" s="101">
+        <v>494585741022912</v>
+      </c>
+      <c r="O5" s="101">
+        <v>515718277764480</v>
+      </c>
+      <c r="P5" s="101">
+        <v>536850814506048</v>
+      </c>
+      <c r="Q5" s="101">
+        <v>557983351247616</v>
+      </c>
+      <c r="R5" s="101">
+        <v>560875172064883</v>
+      </c>
+      <c r="S5" s="101">
+        <v>563766992882150</v>
+      </c>
+      <c r="T5" s="101">
+        <v>566658813699417</v>
+      </c>
+      <c r="U5" s="101">
+        <v>569550634516685</v>
+      </c>
+      <c r="V5" s="101">
+        <v>572442455333952</v>
+      </c>
+      <c r="W5" s="101">
+        <v>588458693706508</v>
+      </c>
+      <c r="X5" s="101">
+        <v>604474932079064</v>
+      </c>
+      <c r="Y5" s="101">
+        <v>620491170451620</v>
+      </c>
+      <c r="Z5" s="101">
+        <v>636507408824180</v>
+      </c>
+      <c r="AA5" s="101">
+        <v>652523647196736.13</v>
+      </c>
+      <c r="AB5" s="101">
+        <v>652523647196736.13</v>
+      </c>
+      <c r="AC5" s="101">
+        <v>652523647196736.13</v>
+      </c>
+      <c r="AD5" s="101">
+        <v>652523647196736.13</v>
+      </c>
+      <c r="AE5" s="101">
+        <v>652523647196736.13</v>
+      </c>
+      <c r="AF5" s="101">
+        <v>652523647196736.13</v>
+      </c>
+      <c r="AG5" s="101">
+        <v>652523647196736.13</v>
+      </c>
+      <c r="AH5" s="101">
+        <v>652523647196736.13</v>
+      </c>
+      <c r="AI5" s="101">
+        <v>652523647196736.13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A6" s="102" t="s">
+        <v>519</v>
+      </c>
+      <c r="B6" s="101">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+      <c r="AC6">
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>0</v>
+      </c>
+      <c r="AG6">
+        <v>0</v>
+      </c>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A7" s="102" t="s">
+        <v>520</v>
+      </c>
+      <c r="B7" s="101">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
+      <c r="AC7">
+        <v>0</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
+      </c>
+      <c r="AF7">
+        <v>0</v>
+      </c>
+      <c r="AG7">
+        <v>0</v>
+      </c>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A8" s="102" t="s">
+        <v>521</v>
+      </c>
+      <c r="B8" s="101">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
+      <c r="AB8">
+        <v>0</v>
+      </c>
+      <c r="AC8">
+        <v>0</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
+      </c>
+      <c r="AF8">
+        <v>0</v>
+      </c>
+      <c r="AG8">
+        <v>0</v>
+      </c>
+      <c r="AH8">
+        <v>0</v>
+      </c>
+      <c r="AI8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A9" s="102" t="s">
+        <v>522</v>
+      </c>
+      <c r="B9" s="101">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <v>0</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+      <c r="AA9">
+        <v>0</v>
+      </c>
+      <c r="AB9">
+        <v>0</v>
+      </c>
+      <c r="AC9">
+        <v>0</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
+      </c>
+      <c r="AF9">
+        <v>0</v>
+      </c>
+      <c r="AG9">
+        <v>0</v>
+      </c>
+      <c r="AH9">
+        <v>0</v>
+      </c>
+      <c r="AI9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A10" s="102" t="s">
+        <v>523</v>
+      </c>
+      <c r="B10" s="103">
+        <v>7681838039669.5898</v>
+      </c>
+      <c r="C10" s="98">
+        <v>7681838039669.5898</v>
+      </c>
+      <c r="D10" s="98">
+        <v>7681838039669.5898</v>
+      </c>
+      <c r="E10" s="98">
+        <v>7681838039669.5898</v>
+      </c>
+      <c r="F10" s="98">
+        <v>7681838039669.5898</v>
+      </c>
+      <c r="G10" s="98">
+        <v>7681838039669.5898</v>
+      </c>
+      <c r="H10" s="98">
+        <v>7681838039669.5898</v>
+      </c>
+      <c r="I10" s="98">
+        <v>7681838039669.5898</v>
+      </c>
+      <c r="J10" s="98">
+        <v>7681838039669.5898</v>
+      </c>
+      <c r="K10" s="98">
+        <v>7681838039669.5898</v>
+      </c>
+      <c r="L10" s="98">
+        <v>7681838039669.5898</v>
+      </c>
+      <c r="M10" s="98">
+        <v>7681838039669.5898</v>
+      </c>
+      <c r="N10" s="98">
+        <v>7681838039669.5898</v>
+      </c>
+      <c r="O10" s="98">
+        <v>7681838039669.5898</v>
+      </c>
+      <c r="P10" s="98">
+        <v>7681838039669.5898</v>
+      </c>
+      <c r="Q10" s="98">
+        <v>7681838039669.5898</v>
+      </c>
+      <c r="R10" s="98">
+        <v>7681838039669.5898</v>
+      </c>
+      <c r="S10" s="98">
+        <v>7681838039669.5898</v>
+      </c>
+      <c r="T10" s="98">
+        <v>7681838039669.5898</v>
+      </c>
+      <c r="U10" s="98">
+        <v>7681838039669.5898</v>
+      </c>
+      <c r="V10" s="98">
+        <v>7681838039669.5898</v>
+      </c>
+      <c r="W10" s="98">
+        <v>7681838039669.5898</v>
+      </c>
+      <c r="X10" s="98">
+        <v>7681838039669.5898</v>
+      </c>
+      <c r="Y10" s="98">
+        <v>7681838039669.5898</v>
+      </c>
+      <c r="Z10" s="98">
+        <v>7681838039669.5898</v>
+      </c>
+      <c r="AA10" s="98">
+        <v>7681838039669.5898</v>
+      </c>
+      <c r="AB10" s="98">
+        <v>7681838039669.5898</v>
+      </c>
+      <c r="AC10" s="98">
+        <v>7681838039669.5898</v>
+      </c>
+      <c r="AD10" s="98">
+        <v>7681838039669.5898</v>
+      </c>
+      <c r="AE10" s="98">
+        <v>7681838039669.5898</v>
+      </c>
+      <c r="AF10" s="98">
+        <v>7681838039669.5898</v>
+      </c>
+      <c r="AG10" s="98">
+        <v>7681838039669.5898</v>
+      </c>
+      <c r="AH10" s="98">
+        <v>7681838039669.5898</v>
+      </c>
+      <c r="AI10" s="98">
+        <v>7681838039669.5898</v>
+      </c>
+    </row>
+    <row r="11" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A11" s="102" t="s">
+        <v>524</v>
+      </c>
+      <c r="B11" s="103">
+        <v>59899030991783.617</v>
+      </c>
+      <c r="C11" s="98">
+        <v>59899030991783.617</v>
+      </c>
+      <c r="D11" s="98">
+        <v>59899030991783.617</v>
+      </c>
+      <c r="E11" s="98">
+        <v>59899030991783.617</v>
+      </c>
+      <c r="F11" s="98">
+        <v>59899030991783.617</v>
+      </c>
+      <c r="G11" s="98">
+        <v>59899030991783.617</v>
+      </c>
+      <c r="H11" s="98">
+        <v>59899030991783.617</v>
+      </c>
+      <c r="I11" s="98">
+        <v>59899030991783.617</v>
+      </c>
+      <c r="J11" s="98">
+        <v>59899030991783.617</v>
+      </c>
+      <c r="K11" s="98">
+        <v>59899030991783.617</v>
+      </c>
+      <c r="L11" s="98">
+        <v>59899030991783.617</v>
+      </c>
+      <c r="M11" s="98">
+        <v>59899030991783.617</v>
+      </c>
+      <c r="N11" s="98">
+        <v>59899030991783.617</v>
+      </c>
+      <c r="O11" s="98">
+        <v>59899030991783.617</v>
+      </c>
+      <c r="P11" s="98">
+        <v>59899030991783.617</v>
+      </c>
+      <c r="Q11" s="98">
+        <v>59899030991783.617</v>
+      </c>
+      <c r="R11" s="98">
+        <v>59899030991783.617</v>
+      </c>
+      <c r="S11" s="98">
+        <v>59899030991783.617</v>
+      </c>
+      <c r="T11" s="98">
+        <v>59899030991783.617</v>
+      </c>
+      <c r="U11" s="98">
+        <v>59899030991783.617</v>
+      </c>
+      <c r="V11" s="98">
+        <v>59899030991783.617</v>
+      </c>
+      <c r="W11" s="98">
+        <v>59899030991783.617</v>
+      </c>
+      <c r="X11" s="98">
+        <v>59899030991783.617</v>
+      </c>
+      <c r="Y11" s="98">
+        <v>59899030991783.617</v>
+      </c>
+      <c r="Z11" s="98">
+        <v>59899030991783.617</v>
+      </c>
+      <c r="AA11" s="98">
+        <v>59899030991783.617</v>
+      </c>
+      <c r="AB11" s="98">
+        <v>59899030991783.617</v>
+      </c>
+      <c r="AC11" s="98">
+        <v>59899030991783.617</v>
+      </c>
+      <c r="AD11" s="98">
+        <v>59899030991783.617</v>
+      </c>
+      <c r="AE11" s="98">
+        <v>59899030991783.617</v>
+      </c>
+      <c r="AF11" s="98">
+        <v>59899030991783.617</v>
+      </c>
+      <c r="AG11" s="98">
+        <v>59899030991783.617</v>
+      </c>
+      <c r="AH11" s="98">
+        <v>59899030991783.617</v>
+      </c>
+      <c r="AI11" s="98">
+        <v>59899030991783.617</v>
+      </c>
+    </row>
+    <row r="12" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A12" s="102" t="s">
+        <v>525</v>
+      </c>
+      <c r="B12" s="101">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <v>0</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+      <c r="AA12">
+        <v>0</v>
+      </c>
+      <c r="AB12">
+        <v>0</v>
+      </c>
+      <c r="AC12">
+        <v>0</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
+      </c>
+      <c r="AF12">
+        <v>0</v>
+      </c>
+      <c r="AG12">
+        <v>0</v>
+      </c>
+      <c r="AH12">
+        <v>0</v>
+      </c>
+      <c r="AI12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A13" s="102" t="s">
+        <v>526</v>
+      </c>
+      <c r="B13" s="101">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
+      </c>
+      <c r="Y13">
+        <v>0</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+      <c r="AA13">
+        <v>0</v>
+      </c>
+      <c r="AB13">
+        <v>0</v>
+      </c>
+      <c r="AC13">
+        <v>0</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
+      </c>
+      <c r="AF13">
+        <v>0</v>
+      </c>
+      <c r="AG13">
+        <v>0</v>
+      </c>
+      <c r="AH13">
+        <v>0</v>
+      </c>
+      <c r="AI13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A14" s="102" t="s">
+        <v>527</v>
+      </c>
+      <c r="B14" s="101">
+        <v>13366862384605.563</v>
+      </c>
+      <c r="C14">
+        <v>13366862384605.563</v>
+      </c>
+      <c r="D14">
+        <v>13366862384605.563</v>
+      </c>
+      <c r="E14">
+        <v>13366862384605.563</v>
+      </c>
+      <c r="F14">
+        <v>13366862384605.563</v>
+      </c>
+      <c r="G14">
+        <v>13366862384605.563</v>
+      </c>
+      <c r="H14">
+        <v>13366862384605.563</v>
+      </c>
+      <c r="I14">
+        <v>13366862384605.563</v>
+      </c>
+      <c r="J14">
+        <v>13366862384605.563</v>
+      </c>
+      <c r="K14">
+        <v>13366862384605.563</v>
+      </c>
+      <c r="L14">
+        <v>13366862384605.563</v>
+      </c>
+      <c r="M14">
+        <v>13366862384605.563</v>
+      </c>
+      <c r="N14">
+        <v>13366862384605.563</v>
+      </c>
+      <c r="O14">
+        <v>13366862384605.563</v>
+      </c>
+      <c r="P14">
+        <v>13366862384605.563</v>
+      </c>
+      <c r="Q14">
+        <v>13366862384605.563</v>
+      </c>
+      <c r="R14">
+        <v>13366862384605.563</v>
+      </c>
+      <c r="S14">
+        <v>13366862384605.563</v>
+      </c>
+      <c r="T14">
+        <v>13366862384605.563</v>
+      </c>
+      <c r="U14">
+        <v>13366862384605.563</v>
+      </c>
+      <c r="V14">
+        <v>13366862384605.563</v>
+      </c>
+      <c r="W14">
+        <v>13366862384605.563</v>
+      </c>
+      <c r="X14">
+        <v>13366862384605.563</v>
+      </c>
+      <c r="Y14">
+        <v>13366862384605.563</v>
+      </c>
+      <c r="Z14">
+        <v>13366862384605.563</v>
+      </c>
+      <c r="AA14">
+        <v>13366862384605.563</v>
+      </c>
+      <c r="AB14">
+        <v>13366862384605.563</v>
+      </c>
+      <c r="AC14">
+        <v>13366862384605.563</v>
+      </c>
+      <c r="AD14">
+        <v>13366862384605.563</v>
+      </c>
+      <c r="AE14">
+        <v>13366862384605.563</v>
+      </c>
+      <c r="AF14">
+        <v>13366862384605.563</v>
+      </c>
+      <c r="AG14">
+        <v>13366862384605.563</v>
+      </c>
+      <c r="AH14">
+        <v>13366862384605.563</v>
+      </c>
+      <c r="AI14">
+        <v>13366862384605.563</v>
+      </c>
+    </row>
+    <row r="15" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A15" s="102" t="s">
+        <v>537</v>
+      </c>
+      <c r="B15" s="101">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <v>0</v>
+      </c>
+      <c r="Y15">
+        <v>0</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+      <c r="AA15">
+        <v>0</v>
+      </c>
+      <c r="AB15">
+        <v>0</v>
+      </c>
+      <c r="AC15">
+        <v>0</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>0</v>
+      </c>
+      <c r="AF15">
+        <v>0</v>
+      </c>
+      <c r="AG15">
+        <v>0</v>
+      </c>
+      <c r="AH15">
+        <v>0</v>
+      </c>
+      <c r="AI15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A16" s="102" t="s">
+        <v>529</v>
+      </c>
+      <c r="B16" s="101">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <v>0</v>
+      </c>
+      <c r="Y16">
+        <v>0</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+      <c r="AA16">
+        <v>0</v>
+      </c>
+      <c r="AB16">
+        <v>0</v>
+      </c>
+      <c r="AC16">
+        <v>0</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>0</v>
+      </c>
+      <c r="AF16">
+        <v>0</v>
+      </c>
+      <c r="AG16">
+        <v>0</v>
+      </c>
+      <c r="AH16">
+        <v>0</v>
+      </c>
+      <c r="AI16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A17" s="102" t="s">
+        <v>530</v>
+      </c>
+      <c r="B17" s="101">
+        <v>138666666666.66666</v>
+      </c>
+      <c r="C17" s="101">
+        <v>152248395533.52368</v>
+      </c>
+      <c r="D17" s="101">
+        <v>167160389008.64624</v>
+      </c>
+      <c r="E17" s="101">
+        <v>183532940072.06296</v>
+      </c>
+      <c r="F17" s="101">
+        <v>201509103270.59094</v>
+      </c>
+      <c r="G17" s="101">
+        <v>221245944651.53802</v>
+      </c>
+      <c r="H17" s="101">
+        <v>236078529040.70654</v>
+      </c>
+      <c r="I17" s="101">
+        <v>251905507067.27402</v>
+      </c>
+      <c r="J17" s="101">
+        <v>268793544032.45532</v>
+      </c>
+      <c r="K17" s="101">
+        <v>286813774556.47443</v>
+      </c>
+      <c r="L17" s="101">
+        <v>306042102206.88721</v>
+      </c>
+      <c r="M17" s="101">
+        <v>324991926009.05078</v>
+      </c>
+      <c r="N17" s="101">
+        <v>345115104129.27576</v>
+      </c>
+      <c r="O17" s="101">
+        <v>366484289504.60718</v>
+      </c>
+      <c r="P17" s="101">
+        <v>389176633669.98169</v>
+      </c>
+      <c r="Q17" s="101">
+        <v>413274065306.95251</v>
+      </c>
+      <c r="R17" s="101">
+        <v>462015535325.87396</v>
+      </c>
+      <c r="S17" s="101">
+        <v>516505565680.51569</v>
+      </c>
+      <c r="T17" s="101">
+        <v>577422140558.07166</v>
+      </c>
+      <c r="U17" s="101">
+        <v>645523205480.61621</v>
+      </c>
+      <c r="V17" s="101">
+        <v>721656097930.7688</v>
+      </c>
+      <c r="W17" s="101">
+        <v>780135894855.83777</v>
+      </c>
+      <c r="X17" s="101">
+        <v>843354634136.14124</v>
+      </c>
+      <c r="Y17" s="101">
+        <v>911696338559.4978</v>
+      </c>
+      <c r="Z17" s="101">
+        <v>985576150410.54822</v>
+      </c>
+      <c r="AA17" s="101">
+        <v>1065442853256.2151</v>
+      </c>
+      <c r="AB17" s="101">
+        <v>1116761781894.292</v>
+      </c>
+      <c r="AC17" s="101">
+        <v>1170552576975.99</v>
+      </c>
+      <c r="AD17" s="101">
+        <v>1226934300295.4124</v>
+      </c>
+      <c r="AE17" s="101">
+        <v>1286031748467.3486</v>
+      </c>
+      <c r="AF17" s="101">
+        <v>1347975729154.998</v>
+      </c>
+      <c r="AG17" s="101">
+        <v>1347975729154.998</v>
+      </c>
+      <c r="AH17" s="101">
+        <v>1347975729154.998</v>
+      </c>
+      <c r="AI17" s="101">
+        <v>1347975729154.998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A18" s="102" t="s">
+        <v>531</v>
+      </c>
+      <c r="B18" s="101">
+        <v>9910838086572000</v>
+      </c>
+      <c r="C18" s="101">
+        <v>1.060960493647856E+16</v>
+      </c>
+      <c r="D18" s="101">
+        <v>1.1357638569503076E+16</v>
+      </c>
+      <c r="E18" s="101">
+        <v>1.215841255614924E+16</v>
+      </c>
+      <c r="F18" s="101">
+        <v>1.3015645372134366E+16</v>
+      </c>
+      <c r="G18" s="101">
+        <v>1.3933317665510818E+16</v>
+      </c>
+      <c r="H18" s="101">
+        <v>1.4776595965661498E+16</v>
+      </c>
+      <c r="I18" s="101">
+        <v>1.5670911521157706E+16</v>
+      </c>
+      <c r="J18" s="101">
+        <v>1.6619353230922536E+16</v>
+      </c>
+      <c r="K18" s="101">
+        <v>1.7625196941560584E+16</v>
+      </c>
+      <c r="L18" s="101">
+        <v>1.8691916761886684E+16</v>
+      </c>
+      <c r="M18" s="101">
+        <v>1.96032838091212E+16</v>
+      </c>
+      <c r="N18" s="101">
+        <v>2.0559086636022708E+16</v>
+      </c>
+      <c r="O18" s="101">
+        <v>2.1561491810408868E+16</v>
+      </c>
+      <c r="P18" s="101">
+        <v>2.26127715360543E+16</v>
+      </c>
+      <c r="Q18" s="101">
+        <v>2.371530880321268E+16</v>
+      </c>
+      <c r="R18" s="101">
+        <v>2.4545371827070744E+16</v>
+      </c>
+      <c r="S18" s="101">
+        <v>2.5404488009346168E+16</v>
+      </c>
+      <c r="T18" s="101">
+        <v>2.6293674243925036E+16</v>
+      </c>
+      <c r="U18" s="101">
+        <v>2.7213983017146432E+16</v>
+      </c>
+      <c r="V18" s="101">
+        <v>2.8166503653579148E+16</v>
+      </c>
+      <c r="W18" s="101">
+        <v>2.8938263262377876E+16</v>
+      </c>
+      <c r="X18" s="101">
+        <v>2.9731169013456052E+16</v>
+      </c>
+      <c r="Y18" s="101">
+        <v>3.0545800309166692E+16</v>
+      </c>
+      <c r="Z18" s="101">
+        <v>3.1382752427433984E+16</v>
+      </c>
+      <c r="AA18" s="101">
+        <v>3.2242636956742472E+16</v>
+      </c>
+      <c r="AB18" s="101">
+        <v>3.2798117427633892E+16</v>
+      </c>
+      <c r="AC18" s="101">
+        <v>3.33631677905275E+16</v>
+      </c>
+      <c r="AD18" s="101">
+        <v>3.393795291680534E+16</v>
+      </c>
+      <c r="AE18" s="101">
+        <v>3.4522640518275716E+16</v>
+      </c>
+      <c r="AF18" s="101">
+        <v>3.5117401196108456E+16</v>
+      </c>
+      <c r="AG18" s="101">
+        <v>3.5117401196108456E+16</v>
+      </c>
+      <c r="AH18" s="101">
+        <v>3.5117401196108456E+16</v>
+      </c>
+      <c r="AI18" s="101">
+        <v>3.5117401196108456E+16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A19" s="102" t="s">
+        <v>532</v>
+      </c>
+      <c r="B19" s="101">
+        <v>53942585740000</v>
+      </c>
+      <c r="C19" s="101">
+        <v>53942585740000</v>
+      </c>
+      <c r="D19" s="101">
+        <v>53942585740000</v>
+      </c>
+      <c r="E19" s="101">
+        <v>53942585740000</v>
+      </c>
+      <c r="F19" s="101">
+        <v>53942585740000</v>
+      </c>
+      <c r="G19" s="101">
+        <v>53942585740000</v>
+      </c>
+      <c r="H19" s="101">
+        <v>53942585740000</v>
+      </c>
+      <c r="I19" s="101">
+        <v>53942585740000</v>
+      </c>
+      <c r="J19" s="101">
+        <v>53942585740000</v>
+      </c>
+      <c r="K19" s="101">
+        <v>53942585740000</v>
+      </c>
+      <c r="L19" s="101">
+        <v>53942585740000</v>
+      </c>
+      <c r="M19" s="101">
+        <v>53942585740000</v>
+      </c>
+      <c r="N19" s="101">
+        <v>53942585740000</v>
+      </c>
+      <c r="O19" s="101">
+        <v>53942585740000</v>
+      </c>
+      <c r="P19" s="101">
+        <v>53942585740000</v>
+      </c>
+      <c r="Q19" s="101">
+        <v>53942585740000</v>
+      </c>
+      <c r="R19" s="101">
+        <v>53942585740000</v>
+      </c>
+      <c r="S19" s="101">
+        <v>53942585740000</v>
+      </c>
+      <c r="T19" s="101">
+        <v>53942585740000</v>
+      </c>
+      <c r="U19" s="101">
+        <v>53942585740000</v>
+      </c>
+      <c r="V19" s="101">
+        <v>53942585740000</v>
+      </c>
+      <c r="W19" s="101">
+        <v>53942585740000</v>
+      </c>
+      <c r="X19" s="101">
+        <v>53942585740000</v>
+      </c>
+      <c r="Y19" s="101">
+        <v>53942585740000</v>
+      </c>
+      <c r="Z19" s="101">
+        <v>53942585740000</v>
+      </c>
+      <c r="AA19" s="101">
+        <v>53942585740000</v>
+      </c>
+      <c r="AB19" s="101">
+        <v>53942585740000</v>
+      </c>
+      <c r="AC19" s="101">
+        <v>53942585740000</v>
+      </c>
+      <c r="AD19" s="101">
+        <v>53942585740000</v>
+      </c>
+      <c r="AE19" s="101">
+        <v>53942585740000</v>
+      </c>
+      <c r="AF19" s="101">
+        <v>53942585740000</v>
+      </c>
+      <c r="AG19" s="101">
+        <v>53942585740000</v>
+      </c>
+      <c r="AH19" s="101">
+        <v>53942585740000</v>
+      </c>
+      <c r="AI19" s="101">
+        <v>53942585740000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A20" s="102" t="s">
+        <v>533</v>
+      </c>
+      <c r="B20" s="103">
+        <v>510050992122000</v>
+      </c>
+      <c r="C20" s="98">
+        <v>510050992122000</v>
+      </c>
+      <c r="D20" s="98">
+        <v>510050992122000</v>
+      </c>
+      <c r="E20" s="98">
+        <v>510050992122000</v>
+      </c>
+      <c r="F20" s="98">
+        <v>510050992122000</v>
+      </c>
+      <c r="G20" s="98">
+        <v>510050992122000</v>
+      </c>
+      <c r="H20" s="98">
+        <v>510050992122000</v>
+      </c>
+      <c r="I20" s="98">
+        <v>510050992122000</v>
+      </c>
+      <c r="J20" s="98">
+        <v>510050992122000</v>
+      </c>
+      <c r="K20" s="98">
+        <v>510050992122000</v>
+      </c>
+      <c r="L20" s="98">
+        <v>510050992122000</v>
+      </c>
+      <c r="M20" s="98">
+        <v>510050992122000</v>
+      </c>
+      <c r="N20" s="98">
+        <v>510050992122000</v>
+      </c>
+      <c r="O20" s="98">
+        <v>510050992122000</v>
+      </c>
+      <c r="P20" s="98">
+        <v>510050992122000</v>
+      </c>
+      <c r="Q20" s="98">
+        <v>510050992122000</v>
+      </c>
+      <c r="R20" s="98">
+        <v>510050992122000</v>
+      </c>
+      <c r="S20" s="98">
+        <v>510050992122000</v>
+      </c>
+      <c r="T20" s="98">
+        <v>510050992122000</v>
+      </c>
+      <c r="U20" s="98">
+        <v>510050992122000</v>
+      </c>
+      <c r="V20" s="98">
+        <v>510050992122000</v>
+      </c>
+      <c r="W20" s="98">
+        <v>510050992122000</v>
+      </c>
+      <c r="X20" s="98">
+        <v>510050992122000</v>
+      </c>
+      <c r="Y20" s="98">
+        <v>510050992122000</v>
+      </c>
+      <c r="Z20" s="98">
+        <v>510050992122000</v>
+      </c>
+      <c r="AA20" s="98">
+        <v>510050992122000</v>
+      </c>
+      <c r="AB20" s="98">
+        <v>510050992122000</v>
+      </c>
+      <c r="AC20" s="98">
+        <v>510050992122000</v>
+      </c>
+      <c r="AD20" s="98">
+        <v>510050992122000</v>
+      </c>
+      <c r="AE20" s="98">
+        <v>510050992122000</v>
+      </c>
+      <c r="AF20" s="98">
+        <v>510050992122000</v>
+      </c>
+      <c r="AG20" s="98">
+        <v>510050992122000</v>
+      </c>
+      <c r="AH20" s="98">
+        <v>510050992122000</v>
+      </c>
+      <c r="AI20" s="98">
+        <v>510050992122000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A21" s="102" t="s">
+        <v>534</v>
+      </c>
+      <c r="B21" s="101">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <v>0</v>
+      </c>
+      <c r="V21">
+        <v>0</v>
+      </c>
+      <c r="W21">
+        <v>0</v>
+      </c>
+      <c r="X21">
+        <v>0</v>
+      </c>
+      <c r="Y21">
+        <v>0</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+      <c r="AA21">
+        <v>0</v>
+      </c>
+      <c r="AB21">
+        <v>0</v>
+      </c>
+      <c r="AC21">
+        <v>0</v>
+      </c>
+      <c r="AD21">
+        <v>0</v>
+      </c>
+      <c r="AE21">
+        <v>0</v>
+      </c>
+      <c r="AF21">
+        <v>0</v>
+      </c>
+      <c r="AG21">
+        <v>0</v>
+      </c>
+      <c r="AH21">
+        <v>0</v>
+      </c>
+      <c r="AI21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A22" s="102" t="s">
+        <v>535</v>
+      </c>
+      <c r="B22" s="101">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <v>0</v>
+      </c>
+      <c r="U22">
+        <v>0</v>
+      </c>
+      <c r="V22">
+        <v>0</v>
+      </c>
+      <c r="W22">
+        <v>0</v>
+      </c>
+      <c r="X22">
+        <v>0</v>
+      </c>
+      <c r="Y22">
+        <v>0</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+      <c r="AA22">
+        <v>0</v>
+      </c>
+      <c r="AB22">
+        <v>0</v>
+      </c>
+      <c r="AC22">
+        <v>0</v>
+      </c>
+      <c r="AD22">
+        <v>0</v>
+      </c>
+      <c r="AE22">
+        <v>0</v>
+      </c>
+      <c r="AF22">
+        <v>0</v>
+      </c>
+      <c r="AG22">
+        <v>0</v>
+      </c>
+      <c r="AH22">
+        <v>0</v>
+      </c>
+      <c r="AI22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A23" s="101"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AI23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="36.265625" customWidth="1"/>
+    <col min="2" max="2" width="12" style="101" bestFit="1" customWidth="1"/>
+    <col min="3" max="35" width="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A1" s="97" t="s">
+        <v>536</v>
+      </c>
+      <c r="B1" s="104">
+        <v>2017</v>
+      </c>
+      <c r="C1" s="100">
+        <v>2018</v>
+      </c>
+      <c r="D1" s="104">
+        <v>2019</v>
+      </c>
+      <c r="E1" s="100">
+        <v>2020</v>
+      </c>
+      <c r="F1" s="104">
+        <v>2021</v>
+      </c>
+      <c r="G1" s="100">
+        <v>2022</v>
+      </c>
+      <c r="H1" s="104">
+        <v>2023</v>
+      </c>
+      <c r="I1" s="100">
+        <v>2024</v>
+      </c>
+      <c r="J1" s="104">
+        <v>2025</v>
+      </c>
+      <c r="K1" s="100">
+        <v>2026</v>
+      </c>
+      <c r="L1" s="104">
+        <v>2027</v>
+      </c>
+      <c r="M1" s="100">
+        <v>2028</v>
+      </c>
+      <c r="N1" s="104">
+        <v>2029</v>
+      </c>
+      <c r="O1" s="100">
+        <v>2030</v>
+      </c>
+      <c r="P1" s="104">
+        <v>2031</v>
+      </c>
+      <c r="Q1" s="100">
+        <v>2032</v>
+      </c>
+      <c r="R1" s="104">
+        <v>2033</v>
+      </c>
+      <c r="S1" s="100">
+        <v>2034</v>
+      </c>
+      <c r="T1" s="104">
+        <v>2035</v>
+      </c>
+      <c r="U1" s="100">
+        <v>2036</v>
+      </c>
+      <c r="V1" s="104">
+        <v>2037</v>
+      </c>
+      <c r="W1" s="100">
+        <v>2038</v>
+      </c>
+      <c r="X1" s="104">
+        <v>2039</v>
+      </c>
+      <c r="Y1" s="100">
+        <v>2040</v>
+      </c>
+      <c r="Z1" s="104">
+        <v>2041</v>
+      </c>
+      <c r="AA1" s="100">
+        <v>2042</v>
+      </c>
+      <c r="AB1" s="104">
+        <v>2043</v>
+      </c>
+      <c r="AC1" s="100">
+        <v>2044</v>
+      </c>
+      <c r="AD1" s="104">
+        <v>2045</v>
+      </c>
+      <c r="AE1" s="100">
+        <v>2046</v>
+      </c>
+      <c r="AF1" s="104">
+        <v>2047</v>
+      </c>
+      <c r="AG1" s="100">
+        <v>2048</v>
+      </c>
+      <c r="AH1" s="104">
+        <v>2049</v>
+      </c>
+      <c r="AI1" s="100">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="2" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A2" s="97" t="s">
+        <v>515</v>
+      </c>
+      <c r="B2" s="101">
+        <v>0</v>
+      </c>
+      <c r="C2" s="101">
+        <v>0</v>
+      </c>
+      <c r="D2" s="101">
+        <v>0</v>
+      </c>
+      <c r="E2" s="101">
+        <v>0</v>
+      </c>
+      <c r="F2" s="101">
+        <v>0</v>
+      </c>
+      <c r="G2" s="101">
+        <v>0</v>
+      </c>
+      <c r="H2" s="101">
+        <v>0</v>
+      </c>
+      <c r="I2" s="101">
+        <v>0</v>
+      </c>
+      <c r="J2" s="101">
+        <v>0</v>
+      </c>
+      <c r="K2" s="101">
+        <v>0</v>
+      </c>
+      <c r="L2" s="101">
+        <v>0</v>
+      </c>
+      <c r="M2" s="101">
+        <v>0</v>
+      </c>
+      <c r="N2" s="101">
+        <v>0</v>
+      </c>
+      <c r="O2" s="101">
+        <v>0</v>
+      </c>
+      <c r="P2" s="101">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="101">
+        <v>0</v>
+      </c>
+      <c r="R2" s="101">
+        <v>0</v>
+      </c>
+      <c r="S2" s="101">
+        <v>0</v>
+      </c>
+      <c r="T2" s="101">
+        <v>0</v>
+      </c>
+      <c r="U2" s="101">
+        <v>0</v>
+      </c>
+      <c r="V2" s="101">
+        <v>0</v>
+      </c>
+      <c r="W2" s="101">
+        <v>0</v>
+      </c>
+      <c r="X2" s="101">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="101">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="101">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="101">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="101">
+        <v>0</v>
+      </c>
+      <c r="AC2" s="101">
+        <v>0</v>
+      </c>
+      <c r="AD2" s="101">
+        <v>0</v>
+      </c>
+      <c r="AE2" s="101">
+        <v>0</v>
+      </c>
+      <c r="AF2" s="101">
+        <v>0</v>
+      </c>
+      <c r="AG2" s="101">
+        <v>0</v>
+      </c>
+      <c r="AH2" s="101">
+        <v>0</v>
+      </c>
+      <c r="AI2" s="101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A3" s="102" t="s">
+        <v>516</v>
+      </c>
+      <c r="B3" s="101">
+        <v>38665282500000</v>
+      </c>
+      <c r="C3">
+        <v>38665282500000</v>
+      </c>
+      <c r="D3">
+        <v>38665282500000</v>
+      </c>
+      <c r="E3">
+        <v>38665282500000</v>
+      </c>
+      <c r="F3">
+        <v>38665282500000</v>
+      </c>
+      <c r="G3">
+        <v>38665282500000</v>
+      </c>
+      <c r="H3">
+        <v>38665282500000</v>
+      </c>
+      <c r="I3">
+        <v>38665282500000</v>
+      </c>
+      <c r="J3">
+        <v>38665282500000</v>
+      </c>
+      <c r="K3">
+        <v>38665282500000</v>
+      </c>
+      <c r="L3">
+        <v>38665282500000</v>
+      </c>
+      <c r="M3">
+        <v>38665282500000</v>
+      </c>
+      <c r="N3">
+        <v>38665282500000</v>
+      </c>
+      <c r="O3">
+        <v>38665282500000</v>
+      </c>
+      <c r="P3">
+        <v>38665282500000</v>
+      </c>
+      <c r="Q3">
+        <v>38665282500000</v>
+      </c>
+      <c r="R3">
+        <v>38665282500000</v>
+      </c>
+      <c r="S3">
+        <v>38665282500000</v>
+      </c>
+      <c r="T3">
+        <v>38665282500000</v>
+      </c>
+      <c r="U3">
+        <v>38665282500000</v>
+      </c>
+      <c r="V3">
+        <v>38665282500000</v>
+      </c>
+      <c r="W3">
+        <v>38665282500000</v>
+      </c>
+      <c r="X3">
+        <v>38665282500000</v>
+      </c>
+      <c r="Y3">
+        <v>38665282500000</v>
+      </c>
+      <c r="Z3">
+        <v>38665282500000</v>
+      </c>
+      <c r="AA3">
+        <v>38665282500000</v>
+      </c>
+      <c r="AB3">
+        <v>38665282500000</v>
+      </c>
+      <c r="AC3">
+        <v>38665282500000</v>
+      </c>
+      <c r="AD3">
+        <v>38665282500000</v>
+      </c>
+      <c r="AE3">
+        <v>38665282500000</v>
+      </c>
+      <c r="AF3">
+        <v>38665282500000</v>
+      </c>
+      <c r="AG3">
+        <v>38665282500000</v>
+      </c>
+      <c r="AH3">
+        <v>38665282500000</v>
+      </c>
+      <c r="AI3">
+        <v>38665282500000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A4" s="102" t="s">
+        <v>517</v>
+      </c>
+      <c r="B4" s="101">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A5" s="102" t="s">
+        <v>518</v>
+      </c>
+      <c r="B5" s="101">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <v>0</v>
+      </c>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A6" s="102" t="s">
+        <v>519</v>
+      </c>
+      <c r="B6" s="101">
+        <v>0</v>
+      </c>
+      <c r="C6" s="101">
+        <v>0</v>
+      </c>
+      <c r="D6" s="101">
+        <v>0</v>
+      </c>
+      <c r="E6" s="101">
+        <v>0</v>
+      </c>
+      <c r="F6" s="101">
+        <v>0</v>
+      </c>
+      <c r="G6" s="101">
+        <v>0</v>
+      </c>
+      <c r="H6" s="101">
+        <v>0</v>
+      </c>
+      <c r="I6" s="101">
+        <v>0</v>
+      </c>
+      <c r="J6" s="101">
+        <v>0</v>
+      </c>
+      <c r="K6" s="101">
+        <v>0</v>
+      </c>
+      <c r="L6" s="101">
+        <v>0</v>
+      </c>
+      <c r="M6" s="101">
+        <v>0</v>
+      </c>
+      <c r="N6" s="101">
+        <v>0</v>
+      </c>
+      <c r="O6" s="101">
+        <v>0</v>
+      </c>
+      <c r="P6" s="101">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="101">
+        <v>0</v>
+      </c>
+      <c r="R6" s="101">
+        <v>0</v>
+      </c>
+      <c r="S6" s="101">
+        <v>0</v>
+      </c>
+      <c r="T6" s="101">
+        <v>0</v>
+      </c>
+      <c r="U6" s="101">
+        <v>0</v>
+      </c>
+      <c r="V6" s="101">
+        <v>0</v>
+      </c>
+      <c r="W6" s="101">
+        <v>0</v>
+      </c>
+      <c r="X6" s="101">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="101">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="101">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="101">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="101">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="101">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="101">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="101">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="101">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="101">
+        <v>0</v>
+      </c>
+      <c r="AH6" s="101">
+        <v>0</v>
+      </c>
+      <c r="AI6" s="101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A7" s="102" t="s">
+        <v>520</v>
+      </c>
+      <c r="B7" s="101">
+        <v>0</v>
+      </c>
+      <c r="C7" s="101">
+        <v>0</v>
+      </c>
+      <c r="D7" s="101">
+        <v>0</v>
+      </c>
+      <c r="E7" s="101">
+        <v>0</v>
+      </c>
+      <c r="F7" s="101">
+        <v>0</v>
+      </c>
+      <c r="G7" s="101">
+        <v>0</v>
+      </c>
+      <c r="H7" s="101">
+        <v>0</v>
+      </c>
+      <c r="I7" s="101">
+        <v>0</v>
+      </c>
+      <c r="J7" s="101">
+        <v>0</v>
+      </c>
+      <c r="K7" s="101">
+        <v>0</v>
+      </c>
+      <c r="L7" s="101">
+        <v>0</v>
+      </c>
+      <c r="M7" s="101">
+        <v>0</v>
+      </c>
+      <c r="N7" s="101">
+        <v>0</v>
+      </c>
+      <c r="O7" s="101">
+        <v>0</v>
+      </c>
+      <c r="P7" s="101">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="101">
+        <v>0</v>
+      </c>
+      <c r="R7" s="101">
+        <v>0</v>
+      </c>
+      <c r="S7" s="101">
+        <v>0</v>
+      </c>
+      <c r="T7" s="101">
+        <v>0</v>
+      </c>
+      <c r="U7" s="101">
+        <v>0</v>
+      </c>
+      <c r="V7" s="101">
+        <v>0</v>
+      </c>
+      <c r="W7" s="101">
+        <v>0</v>
+      </c>
+      <c r="X7" s="101">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="101">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="101">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="101">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="101">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="101">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="101">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="101">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="101">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="101">
+        <v>0</v>
+      </c>
+      <c r="AH7" s="101">
+        <v>0</v>
+      </c>
+      <c r="AI7" s="101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A8" s="102" t="s">
+        <v>521</v>
+      </c>
+      <c r="B8" s="101">
+        <v>0</v>
+      </c>
+      <c r="C8" s="101">
+        <v>0</v>
+      </c>
+      <c r="D8" s="101">
+        <v>0</v>
+      </c>
+      <c r="E8" s="101">
+        <v>0</v>
+      </c>
+      <c r="F8" s="101">
+        <v>0</v>
+      </c>
+      <c r="G8" s="101">
+        <v>0</v>
+      </c>
+      <c r="H8" s="101">
+        <v>0</v>
+      </c>
+      <c r="I8" s="101">
+        <v>0</v>
+      </c>
+      <c r="J8" s="101">
+        <v>0</v>
+      </c>
+      <c r="K8" s="101">
+        <v>0</v>
+      </c>
+      <c r="L8" s="101">
+        <v>0</v>
+      </c>
+      <c r="M8" s="101">
+        <v>0</v>
+      </c>
+      <c r="N8" s="101">
+        <v>0</v>
+      </c>
+      <c r="O8" s="101">
+        <v>0</v>
+      </c>
+      <c r="P8" s="101">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="101">
+        <v>0</v>
+      </c>
+      <c r="R8" s="101">
+        <v>0</v>
+      </c>
+      <c r="S8" s="101">
+        <v>0</v>
+      </c>
+      <c r="T8" s="101">
+        <v>0</v>
+      </c>
+      <c r="U8" s="101">
+        <v>0</v>
+      </c>
+      <c r="V8" s="101">
+        <v>0</v>
+      </c>
+      <c r="W8" s="101">
+        <v>0</v>
+      </c>
+      <c r="X8" s="101">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="101">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="101">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="101">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="101">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="101">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="101">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="101">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="101">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="101">
+        <v>0</v>
+      </c>
+      <c r="AH8" s="101">
+        <v>0</v>
+      </c>
+      <c r="AI8" s="101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A9" s="102" t="s">
+        <v>522</v>
+      </c>
+      <c r="B9" s="101">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <v>0</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+      <c r="AA9">
+        <v>0</v>
+      </c>
+      <c r="AB9">
+        <v>0</v>
+      </c>
+      <c r="AC9">
+        <v>0</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
+      </c>
+      <c r="AF9">
+        <v>0</v>
+      </c>
+      <c r="AG9">
+        <v>0</v>
+      </c>
+      <c r="AH9">
+        <v>0</v>
+      </c>
+      <c r="AI9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A10" s="102" t="s">
+        <v>523</v>
+      </c>
+      <c r="B10" s="103">
+        <v>619624120038866</v>
+      </c>
+      <c r="C10" s="98">
+        <v>619624120038866</v>
+      </c>
+      <c r="D10" s="98">
+        <v>619624120038866</v>
+      </c>
+      <c r="E10" s="98">
+        <v>619624120038866</v>
+      </c>
+      <c r="F10" s="98">
+        <v>619624120038866</v>
+      </c>
+      <c r="G10" s="98">
+        <v>619624120038866</v>
+      </c>
+      <c r="H10" s="98">
+        <v>619624120038866</v>
+      </c>
+      <c r="I10" s="98">
+        <v>619624120038866</v>
+      </c>
+      <c r="J10" s="98">
+        <v>619624120038866</v>
+      </c>
+      <c r="K10" s="98">
+        <v>619624120038866</v>
+      </c>
+      <c r="L10" s="98">
+        <v>619624120038866</v>
+      </c>
+      <c r="M10" s="98">
+        <v>619624120038866</v>
+      </c>
+      <c r="N10" s="98">
+        <v>619624120038866</v>
+      </c>
+      <c r="O10" s="98">
+        <v>619624120038866</v>
+      </c>
+      <c r="P10" s="98">
+        <v>619624120038866</v>
+      </c>
+      <c r="Q10" s="98">
+        <v>619624120038866</v>
+      </c>
+      <c r="R10" s="98">
+        <v>619624120038866</v>
+      </c>
+      <c r="S10" s="98">
+        <v>619624120038866</v>
+      </c>
+      <c r="T10" s="98">
+        <v>619624120038866</v>
+      </c>
+      <c r="U10" s="98">
+        <v>619624120038866</v>
+      </c>
+      <c r="V10" s="98">
+        <v>619624120038866</v>
+      </c>
+      <c r="W10" s="98">
+        <v>619624120038866</v>
+      </c>
+      <c r="X10" s="98">
+        <v>619624120038866</v>
+      </c>
+      <c r="Y10" s="98">
+        <v>619624120038866</v>
+      </c>
+      <c r="Z10" s="98">
+        <v>619624120038866</v>
+      </c>
+      <c r="AA10" s="98">
+        <v>619624120038866</v>
+      </c>
+      <c r="AB10" s="98">
+        <v>619624120038866</v>
+      </c>
+      <c r="AC10" s="98">
+        <v>619624120038866</v>
+      </c>
+      <c r="AD10" s="98">
+        <v>619624120038866</v>
+      </c>
+      <c r="AE10" s="98">
+        <v>619624120038866</v>
+      </c>
+      <c r="AF10" s="98">
+        <v>619624120038866</v>
+      </c>
+      <c r="AG10" s="98">
+        <v>619624120038866</v>
+      </c>
+      <c r="AH10" s="98">
+        <v>619624120038866</v>
+      </c>
+      <c r="AI10" s="98">
+        <v>619624120038866</v>
+      </c>
+    </row>
+    <row r="11" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A11" s="102" t="s">
+        <v>524</v>
+      </c>
+      <c r="B11" s="103">
+        <v>1313794267340850.5</v>
+      </c>
+      <c r="C11" s="98">
+        <v>1313794267340850.5</v>
+      </c>
+      <c r="D11" s="98">
+        <v>1313794267340850.5</v>
+      </c>
+      <c r="E11" s="98">
+        <v>1313794267340850.5</v>
+      </c>
+      <c r="F11" s="98">
+        <v>1313794267340850.5</v>
+      </c>
+      <c r="G11" s="98">
+        <v>1313794267340850.5</v>
+      </c>
+      <c r="H11" s="98">
+        <v>1313794267340850.5</v>
+      </c>
+      <c r="I11" s="98">
+        <v>1313794267340850.5</v>
+      </c>
+      <c r="J11" s="98">
+        <v>1313794267340850.5</v>
+      </c>
+      <c r="K11" s="98">
+        <v>1313794267340850.5</v>
+      </c>
+      <c r="L11" s="98">
+        <v>1313794267340850.5</v>
+      </c>
+      <c r="M11" s="98">
+        <v>1313794267340850.5</v>
+      </c>
+      <c r="N11" s="98">
+        <v>1313794267340850.5</v>
+      </c>
+      <c r="O11" s="98">
+        <v>1313794267340850.5</v>
+      </c>
+      <c r="P11" s="98">
+        <v>1313794267340850.5</v>
+      </c>
+      <c r="Q11" s="98">
+        <v>1313794267340850.5</v>
+      </c>
+      <c r="R11" s="98">
+        <v>1313794267340850.5</v>
+      </c>
+      <c r="S11" s="98">
+        <v>1313794267340850.5</v>
+      </c>
+      <c r="T11" s="98">
+        <v>1313794267340850.5</v>
+      </c>
+      <c r="U11" s="98">
+        <v>1313794267340850.5</v>
+      </c>
+      <c r="V11" s="98">
+        <v>1313794267340850.5</v>
+      </c>
+      <c r="W11" s="98">
+        <v>1313794267340850.5</v>
+      </c>
+      <c r="X11" s="98">
+        <v>1313794267340850.5</v>
+      </c>
+      <c r="Y11" s="98">
+        <v>1313794267340850.5</v>
+      </c>
+      <c r="Z11" s="98">
+        <v>1313794267340850.5</v>
+      </c>
+      <c r="AA11" s="98">
+        <v>1313794267340850.5</v>
+      </c>
+      <c r="AB11" s="98">
+        <v>1313794267340850.5</v>
+      </c>
+      <c r="AC11" s="98">
+        <v>1313794267340850.5</v>
+      </c>
+      <c r="AD11" s="98">
+        <v>1313794267340850.5</v>
+      </c>
+      <c r="AE11" s="98">
+        <v>1313794267340850.5</v>
+      </c>
+      <c r="AF11" s="98">
+        <v>1313794267340850.5</v>
+      </c>
+      <c r="AG11" s="98">
+        <v>1313794267340850.5</v>
+      </c>
+      <c r="AH11" s="98">
+        <v>1313794267340850.5</v>
+      </c>
+      <c r="AI11" s="98">
+        <v>1313794267340850.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A12" s="102" t="s">
+        <v>525</v>
+      </c>
+      <c r="B12" s="101">
+        <v>0</v>
+      </c>
+      <c r="C12" s="101">
+        <v>0</v>
+      </c>
+      <c r="D12" s="101">
+        <v>0</v>
+      </c>
+      <c r="E12" s="101">
+        <v>0</v>
+      </c>
+      <c r="F12" s="101">
+        <v>0</v>
+      </c>
+      <c r="G12" s="101">
+        <v>0</v>
+      </c>
+      <c r="H12" s="101">
+        <v>0</v>
+      </c>
+      <c r="I12" s="101">
+        <v>0</v>
+      </c>
+      <c r="J12" s="101">
+        <v>0</v>
+      </c>
+      <c r="K12" s="101">
+        <v>0</v>
+      </c>
+      <c r="L12" s="101">
+        <v>0</v>
+      </c>
+      <c r="M12" s="101">
+        <v>0</v>
+      </c>
+      <c r="N12" s="101">
+        <v>0</v>
+      </c>
+      <c r="O12" s="101">
+        <v>0</v>
+      </c>
+      <c r="P12" s="101">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="101">
+        <v>0</v>
+      </c>
+      <c r="R12" s="101">
+        <v>0</v>
+      </c>
+      <c r="S12" s="101">
+        <v>0</v>
+      </c>
+      <c r="T12" s="101">
+        <v>0</v>
+      </c>
+      <c r="U12" s="101">
+        <v>0</v>
+      </c>
+      <c r="V12" s="101">
+        <v>0</v>
+      </c>
+      <c r="W12" s="101">
+        <v>0</v>
+      </c>
+      <c r="X12" s="101">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="101">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="101">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="101">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="101">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="101">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="101">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="101">
+        <v>0</v>
+      </c>
+      <c r="AF12" s="101">
+        <v>0</v>
+      </c>
+      <c r="AG12" s="101">
+        <v>0</v>
+      </c>
+      <c r="AH12" s="101">
+        <v>0</v>
+      </c>
+      <c r="AI12" s="101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A13" s="102" t="s">
+        <v>526</v>
+      </c>
+      <c r="B13" s="101">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
+      </c>
+      <c r="Y13">
+        <v>0</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+      <c r="AA13">
+        <v>0</v>
+      </c>
+      <c r="AB13">
+        <v>0</v>
+      </c>
+      <c r="AC13">
+        <v>0</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
+      </c>
+      <c r="AF13">
+        <v>0</v>
+      </c>
+      <c r="AG13">
+        <v>0</v>
+      </c>
+      <c r="AH13">
+        <v>0</v>
+      </c>
+      <c r="AI13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A14" s="102" t="s">
+        <v>527</v>
+      </c>
+      <c r="B14" s="101">
+        <v>329945609995263.81</v>
+      </c>
+      <c r="C14">
+        <v>329945609995263.81</v>
+      </c>
+      <c r="D14">
+        <v>329945609995263.81</v>
+      </c>
+      <c r="E14">
+        <v>329945609995263.81</v>
+      </c>
+      <c r="F14">
+        <v>329945609995263.81</v>
+      </c>
+      <c r="G14">
+        <v>329945609995263.81</v>
+      </c>
+      <c r="H14">
+        <v>329945609995263.81</v>
+      </c>
+      <c r="I14">
+        <v>329945609995263.81</v>
+      </c>
+      <c r="J14">
+        <v>329945609995263.81</v>
+      </c>
+      <c r="K14">
+        <v>329945609995263.81</v>
+      </c>
+      <c r="L14">
+        <v>329945609995263.81</v>
+      </c>
+      <c r="M14">
+        <v>329945609995263.81</v>
+      </c>
+      <c r="N14">
+        <v>329945609995263.81</v>
+      </c>
+      <c r="O14">
+        <v>329945609995263.81</v>
+      </c>
+      <c r="P14">
+        <v>329945609995263.81</v>
+      </c>
+      <c r="Q14">
+        <v>329945609995263.81</v>
+      </c>
+      <c r="R14">
+        <v>329945609995263.81</v>
+      </c>
+      <c r="S14">
+        <v>329945609995263.81</v>
+      </c>
+      <c r="T14">
+        <v>329945609995263.81</v>
+      </c>
+      <c r="U14">
+        <v>329945609995263.81</v>
+      </c>
+      <c r="V14">
+        <v>329945609995263.81</v>
+      </c>
+      <c r="W14">
+        <v>329945609995263.81</v>
+      </c>
+      <c r="X14">
+        <v>329945609995263.81</v>
+      </c>
+      <c r="Y14">
+        <v>329945609995263.81</v>
+      </c>
+      <c r="Z14">
+        <v>329945609995263.81</v>
+      </c>
+      <c r="AA14">
+        <v>329945609995263.81</v>
+      </c>
+      <c r="AB14">
+        <v>329945609995263.81</v>
+      </c>
+      <c r="AC14">
+        <v>329945609995263.81</v>
+      </c>
+      <c r="AD14">
+        <v>329945609995263.81</v>
+      </c>
+      <c r="AE14">
+        <v>329945609995263.81</v>
+      </c>
+      <c r="AF14">
+        <v>329945609995263.81</v>
+      </c>
+      <c r="AG14">
+        <v>329945609995263.81</v>
+      </c>
+      <c r="AH14">
+        <v>329945609995263.81</v>
+      </c>
+      <c r="AI14">
+        <v>329945609995263.81</v>
+      </c>
+    </row>
+    <row r="15" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A15" s="102" t="s">
+        <v>537</v>
+      </c>
+      <c r="B15" s="101">
+        <v>0</v>
+      </c>
+      <c r="C15" s="101">
+        <v>0</v>
+      </c>
+      <c r="D15" s="101">
+        <v>0</v>
+      </c>
+      <c r="E15" s="101">
+        <v>0</v>
+      </c>
+      <c r="F15" s="101">
+        <v>0</v>
+      </c>
+      <c r="G15" s="101">
+        <v>0</v>
+      </c>
+      <c r="H15" s="101">
+        <v>0</v>
+      </c>
+      <c r="I15" s="101">
+        <v>0</v>
+      </c>
+      <c r="J15" s="101">
+        <v>0</v>
+      </c>
+      <c r="K15" s="101">
+        <v>0</v>
+      </c>
+      <c r="L15" s="101">
+        <v>0</v>
+      </c>
+      <c r="M15" s="101">
+        <v>0</v>
+      </c>
+      <c r="N15" s="101">
+        <v>0</v>
+      </c>
+      <c r="O15" s="101">
+        <v>0</v>
+      </c>
+      <c r="P15" s="101">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="101">
+        <v>0</v>
+      </c>
+      <c r="R15" s="101">
+        <v>0</v>
+      </c>
+      <c r="S15" s="101">
+        <v>0</v>
+      </c>
+      <c r="T15" s="101">
+        <v>0</v>
+      </c>
+      <c r="U15" s="101">
+        <v>0</v>
+      </c>
+      <c r="V15" s="101">
+        <v>0</v>
+      </c>
+      <c r="W15" s="101">
+        <v>0</v>
+      </c>
+      <c r="X15" s="101">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="101">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="101">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="101">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="101">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="101">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="101">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="101">
+        <v>0</v>
+      </c>
+      <c r="AF15" s="101">
+        <v>0</v>
+      </c>
+      <c r="AG15" s="101">
+        <v>0</v>
+      </c>
+      <c r="AH15" s="101">
+        <v>0</v>
+      </c>
+      <c r="AI15" s="101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A16" s="102" t="s">
+        <v>529</v>
+      </c>
+      <c r="B16" s="101">
+        <v>0</v>
+      </c>
+      <c r="C16" s="101">
+        <v>0</v>
+      </c>
+      <c r="D16" s="101">
+        <v>0</v>
+      </c>
+      <c r="E16" s="101">
+        <v>0</v>
+      </c>
+      <c r="F16" s="101">
+        <v>0</v>
+      </c>
+      <c r="G16" s="101">
+        <v>0</v>
+      </c>
+      <c r="H16" s="101">
+        <v>0</v>
+      </c>
+      <c r="I16" s="101">
+        <v>0</v>
+      </c>
+      <c r="J16" s="101">
+        <v>0</v>
+      </c>
+      <c r="K16" s="101">
+        <v>0</v>
+      </c>
+      <c r="L16" s="101">
+        <v>0</v>
+      </c>
+      <c r="M16" s="101">
+        <v>0</v>
+      </c>
+      <c r="N16" s="101">
+        <v>0</v>
+      </c>
+      <c r="O16" s="101">
+        <v>0</v>
+      </c>
+      <c r="P16" s="101">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="101">
+        <v>0</v>
+      </c>
+      <c r="R16" s="101">
+        <v>0</v>
+      </c>
+      <c r="S16" s="101">
+        <v>0</v>
+      </c>
+      <c r="T16" s="101">
+        <v>0</v>
+      </c>
+      <c r="U16" s="101">
+        <v>0</v>
+      </c>
+      <c r="V16" s="101">
+        <v>0</v>
+      </c>
+      <c r="W16" s="101">
+        <v>0</v>
+      </c>
+      <c r="X16" s="101">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="101">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="101">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="101">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="101">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="101">
+        <v>0</v>
+      </c>
+      <c r="AD16" s="101">
+        <v>0</v>
+      </c>
+      <c r="AE16" s="101">
+        <v>0</v>
+      </c>
+      <c r="AF16" s="101">
+        <v>0</v>
+      </c>
+      <c r="AG16" s="101">
+        <v>0</v>
+      </c>
+      <c r="AH16" s="101">
+        <v>0</v>
+      </c>
+      <c r="AI16" s="101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A17" s="102" t="s">
+        <v>530</v>
+      </c>
+      <c r="B17" s="101">
+        <v>58666666666.666664</v>
+      </c>
+      <c r="C17">
+        <v>58666666666.666664</v>
+      </c>
+      <c r="D17">
+        <v>58666666666.666664</v>
+      </c>
+      <c r="E17">
+        <v>58666666666.666664</v>
+      </c>
+      <c r="F17">
+        <v>58666666666.666664</v>
+      </c>
+      <c r="G17">
+        <v>58666666666.666664</v>
+      </c>
+      <c r="H17">
+        <v>58666666666.666664</v>
+      </c>
+      <c r="I17">
+        <v>58666666666.666664</v>
+      </c>
+      <c r="J17">
+        <v>58666666666.666664</v>
+      </c>
+      <c r="K17">
+        <v>58666666666.666664</v>
+      </c>
+      <c r="L17">
+        <v>58666666666.666664</v>
+      </c>
+      <c r="M17">
+        <v>58666666666.666664</v>
+      </c>
+      <c r="N17">
+        <v>58666666666.666664</v>
+      </c>
+      <c r="O17">
+        <v>58666666666.666664</v>
+      </c>
+      <c r="P17">
+        <v>58666666666.666664</v>
+      </c>
+      <c r="Q17">
+        <v>58666666666.666664</v>
+      </c>
+      <c r="R17">
+        <v>58666666666.666664</v>
+      </c>
+      <c r="S17">
+        <v>58666666666.666664</v>
+      </c>
+      <c r="T17">
+        <v>58666666666.666664</v>
+      </c>
+      <c r="U17">
+        <v>58666666666.666664</v>
+      </c>
+      <c r="V17">
+        <v>58666666666.666664</v>
+      </c>
+      <c r="W17">
+        <v>58666666666.666664</v>
+      </c>
+      <c r="X17">
+        <v>58666666666.666664</v>
+      </c>
+      <c r="Y17">
+        <v>58666666666.666664</v>
+      </c>
+      <c r="Z17">
+        <v>58666666666.666664</v>
+      </c>
+      <c r="AA17">
+        <v>58666666666.666664</v>
+      </c>
+      <c r="AB17">
+        <v>58666666666.666664</v>
+      </c>
+      <c r="AC17">
+        <v>58666666666.666664</v>
+      </c>
+      <c r="AD17">
+        <v>58666666666.666664</v>
+      </c>
+      <c r="AE17">
+        <v>58666666666.666664</v>
+      </c>
+      <c r="AF17">
+        <v>58666666666.666664</v>
+      </c>
+      <c r="AG17">
+        <v>58666666666.666664</v>
+      </c>
+      <c r="AH17">
+        <v>58666666666.666664</v>
+      </c>
+      <c r="AI17">
+        <v>58666666666.666664</v>
+      </c>
+    </row>
+    <row r="18" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A18" s="102" t="s">
+        <v>531</v>
+      </c>
+      <c r="B18" s="101">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <v>0</v>
+      </c>
+      <c r="V18">
+        <v>0</v>
+      </c>
+      <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <v>0</v>
+      </c>
+      <c r="Y18">
+        <v>0</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+      <c r="AA18">
+        <v>0</v>
+      </c>
+      <c r="AB18">
+        <v>0</v>
+      </c>
+      <c r="AC18">
+        <v>0</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18">
+        <v>0</v>
+      </c>
+      <c r="AF18">
+        <v>0</v>
+      </c>
+      <c r="AG18">
+        <v>0</v>
+      </c>
+      <c r="AH18">
+        <v>0</v>
+      </c>
+      <c r="AI18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A19" s="102" t="s">
+        <v>532</v>
+      </c>
+      <c r="B19" s="101">
+        <v>105596954960000</v>
+      </c>
+      <c r="C19">
+        <v>105596954960000</v>
+      </c>
+      <c r="D19">
+        <v>105596954960000</v>
+      </c>
+      <c r="E19">
+        <v>105596954960000</v>
+      </c>
+      <c r="F19">
+        <v>105596954960000</v>
+      </c>
+      <c r="G19">
+        <v>105596954960000</v>
+      </c>
+      <c r="H19">
+        <v>105596954960000</v>
+      </c>
+      <c r="I19">
+        <v>105596954960000</v>
+      </c>
+      <c r="J19">
+        <v>105596954960000</v>
+      </c>
+      <c r="K19">
+        <v>105596954960000</v>
+      </c>
+      <c r="L19">
+        <v>105596954960000</v>
+      </c>
+      <c r="M19">
+        <v>105596954960000</v>
+      </c>
+      <c r="N19">
+        <v>105596954960000</v>
+      </c>
+      <c r="O19">
+        <v>105596954960000</v>
+      </c>
+      <c r="P19">
+        <v>105596954960000</v>
+      </c>
+      <c r="Q19">
+        <v>105596954960000</v>
+      </c>
+      <c r="R19">
+        <v>105596954960000</v>
+      </c>
+      <c r="S19">
+        <v>105596954960000</v>
+      </c>
+      <c r="T19">
+        <v>105596954960000</v>
+      </c>
+      <c r="U19">
+        <v>105596954960000</v>
+      </c>
+      <c r="V19">
+        <v>105596954960000</v>
+      </c>
+      <c r="W19">
+        <v>105596954960000</v>
+      </c>
+      <c r="X19">
+        <v>105596954960000</v>
+      </c>
+      <c r="Y19">
+        <v>105596954960000</v>
+      </c>
+      <c r="Z19">
+        <v>105596954960000</v>
+      </c>
+      <c r="AA19">
+        <v>105596954960000</v>
+      </c>
+      <c r="AB19">
+        <v>105596954960000</v>
+      </c>
+      <c r="AC19">
+        <v>105596954960000</v>
+      </c>
+      <c r="AD19">
+        <v>105596954960000</v>
+      </c>
+      <c r="AE19">
+        <v>105596954960000</v>
+      </c>
+      <c r="AF19">
+        <v>105596954960000</v>
+      </c>
+      <c r="AG19">
+        <v>105596954960000</v>
+      </c>
+      <c r="AH19">
+        <v>105596954960000</v>
+      </c>
+      <c r="AI19">
+        <v>105596954960000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A20" s="102" t="s">
+        <v>533</v>
+      </c>
+      <c r="B20" s="103">
+        <v>16087533489000</v>
+      </c>
+      <c r="C20" s="98">
+        <v>16087533489000</v>
+      </c>
+      <c r="D20" s="98">
+        <v>16087533489000</v>
+      </c>
+      <c r="E20" s="98">
+        <v>16087533489000</v>
+      </c>
+      <c r="F20" s="98">
+        <v>16087533489000</v>
+      </c>
+      <c r="G20" s="98">
+        <v>16087533489000</v>
+      </c>
+      <c r="H20" s="98">
+        <v>16087533489000</v>
+      </c>
+      <c r="I20" s="98">
+        <v>16087533489000</v>
+      </c>
+      <c r="J20" s="98">
+        <v>16087533489000</v>
+      </c>
+      <c r="K20" s="98">
+        <v>16087533489000</v>
+      </c>
+      <c r="L20" s="98">
+        <v>16087533489000</v>
+      </c>
+      <c r="M20" s="98">
+        <v>16087533489000</v>
+      </c>
+      <c r="N20" s="98">
+        <v>16087533489000</v>
+      </c>
+      <c r="O20" s="98">
+        <v>16087533489000</v>
+      </c>
+      <c r="P20" s="98">
+        <v>16087533489000</v>
+      </c>
+      <c r="Q20" s="98">
+        <v>16087533489000</v>
+      </c>
+      <c r="R20" s="98">
+        <v>16087533489000</v>
+      </c>
+      <c r="S20" s="98">
+        <v>16087533489000</v>
+      </c>
+      <c r="T20" s="98">
+        <v>16087533489000</v>
+      </c>
+      <c r="U20" s="98">
+        <v>16087533489000</v>
+      </c>
+      <c r="V20" s="98">
+        <v>16087533489000</v>
+      </c>
+      <c r="W20" s="98">
+        <v>16087533489000</v>
+      </c>
+      <c r="X20" s="98">
+        <v>16087533489000</v>
+      </c>
+      <c r="Y20" s="98">
+        <v>16087533489000</v>
+      </c>
+      <c r="Z20" s="98">
+        <v>16087533489000</v>
+      </c>
+      <c r="AA20" s="98">
+        <v>16087533489000</v>
+      </c>
+      <c r="AB20" s="98">
+        <v>16087533489000</v>
+      </c>
+      <c r="AC20" s="98">
+        <v>16087533489000</v>
+      </c>
+      <c r="AD20" s="98">
+        <v>16087533489000</v>
+      </c>
+      <c r="AE20" s="98">
+        <v>16087533489000</v>
+      </c>
+      <c r="AF20" s="98">
+        <v>16087533489000</v>
+      </c>
+      <c r="AG20" s="98">
+        <v>16087533489000</v>
+      </c>
+      <c r="AH20" s="98">
+        <v>16087533489000</v>
+      </c>
+      <c r="AI20" s="98">
+        <v>16087533489000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A21" s="102" t="s">
+        <v>534</v>
+      </c>
+      <c r="B21" s="101">
+        <v>0</v>
+      </c>
+      <c r="C21" s="101">
+        <v>0</v>
+      </c>
+      <c r="D21" s="101">
+        <v>0</v>
+      </c>
+      <c r="E21" s="101">
+        <v>0</v>
+      </c>
+      <c r="F21" s="101">
+        <v>0</v>
+      </c>
+      <c r="G21" s="101">
+        <v>0</v>
+      </c>
+      <c r="H21" s="101">
+        <v>0</v>
+      </c>
+      <c r="I21" s="101">
+        <v>0</v>
+      </c>
+      <c r="J21" s="101">
+        <v>0</v>
+      </c>
+      <c r="K21" s="101">
+        <v>0</v>
+      </c>
+      <c r="L21" s="101">
+        <v>0</v>
+      </c>
+      <c r="M21" s="101">
+        <v>0</v>
+      </c>
+      <c r="N21" s="101">
+        <v>0</v>
+      </c>
+      <c r="O21" s="101">
+        <v>0</v>
+      </c>
+      <c r="P21" s="101">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="101">
+        <v>0</v>
+      </c>
+      <c r="R21" s="101">
+        <v>0</v>
+      </c>
+      <c r="S21" s="101">
+        <v>0</v>
+      </c>
+      <c r="T21" s="101">
+        <v>0</v>
+      </c>
+      <c r="U21" s="101">
+        <v>0</v>
+      </c>
+      <c r="V21" s="101">
+        <v>0</v>
+      </c>
+      <c r="W21" s="101">
+        <v>0</v>
+      </c>
+      <c r="X21" s="101">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="101">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="101">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="101">
+        <v>0</v>
+      </c>
+      <c r="AB21" s="101">
+        <v>0</v>
+      </c>
+      <c r="AC21" s="101">
+        <v>0</v>
+      </c>
+      <c r="AD21" s="101">
+        <v>0</v>
+      </c>
+      <c r="AE21" s="101">
+        <v>0</v>
+      </c>
+      <c r="AF21" s="101">
+        <v>0</v>
+      </c>
+      <c r="AG21" s="101">
+        <v>0</v>
+      </c>
+      <c r="AH21" s="101">
+        <v>0</v>
+      </c>
+      <c r="AI21" s="101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A22" s="102" t="s">
+        <v>535</v>
+      </c>
+      <c r="B22" s="101">
+        <v>0</v>
+      </c>
+      <c r="C22" s="101">
+        <v>0</v>
+      </c>
+      <c r="D22" s="101">
+        <v>0</v>
+      </c>
+      <c r="E22" s="101">
+        <v>0</v>
+      </c>
+      <c r="F22" s="101">
+        <v>0</v>
+      </c>
+      <c r="G22" s="101">
+        <v>0</v>
+      </c>
+      <c r="H22" s="101">
+        <v>0</v>
+      </c>
+      <c r="I22" s="101">
+        <v>0</v>
+      </c>
+      <c r="J22" s="101">
+        <v>0</v>
+      </c>
+      <c r="K22" s="101">
+        <v>0</v>
+      </c>
+      <c r="L22" s="101">
+        <v>0</v>
+      </c>
+      <c r="M22" s="101">
+        <v>0</v>
+      </c>
+      <c r="N22" s="101">
+        <v>0</v>
+      </c>
+      <c r="O22" s="101">
+        <v>0</v>
+      </c>
+      <c r="P22" s="101">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="101">
+        <v>0</v>
+      </c>
+      <c r="R22" s="101">
+        <v>0</v>
+      </c>
+      <c r="S22" s="101">
+        <v>0</v>
+      </c>
+      <c r="T22" s="101">
+        <v>0</v>
+      </c>
+      <c r="U22" s="101">
+        <v>0</v>
+      </c>
+      <c r="V22" s="101">
+        <v>0</v>
+      </c>
+      <c r="W22" s="101">
+        <v>0</v>
+      </c>
+      <c r="X22" s="101">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="101">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="101">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="101">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="101">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="101">
+        <v>0</v>
+      </c>
+      <c r="AD22" s="101">
+        <v>0</v>
+      </c>
+      <c r="AE22" s="101">
+        <v>0</v>
+      </c>
+      <c r="AF22" s="101">
+        <v>0</v>
+      </c>
+      <c r="AG22" s="101">
+        <v>0</v>
+      </c>
+      <c r="AH22" s="101">
+        <v>0</v>
+      </c>
+      <c r="AI22" s="101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A23" s="101"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D45"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A8" workbookViewId="0">
@@ -9635,7 +17359,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CB96"/>
   <sheetViews>
@@ -28216,7 +35940,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BO121"/>
   <sheetViews>
@@ -52788,7 +60512,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL11"/>
   <sheetViews>
@@ -54048,296 +61772,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor theme="8" tint="-0.249977111117893"/>
-  </sheetPr>
-  <dimension ref="A1:AL2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="24.86328125" customWidth="1"/>
-    <col min="2" max="38" width="10.1328125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K1" s="30" t="s">
-        <v>175</v>
-      </c>
-      <c r="L1" s="30" t="s">
-        <v>176</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="R1" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="S1" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="T1" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="U1" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="V1" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="W1" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="X1" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y1" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z1" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA1" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB1" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC1" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD1" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE1" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="AF1" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="AG1" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="AH1" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="AI1" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="AJ1" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="AK1" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="AL1" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:38" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A2" s="24" t="s">
-        <v>155</v>
-      </c>
-      <c r="B2" s="10">
-        <f>Calculations!B9</f>
-        <v>0.98861400725786042</v>
-      </c>
-      <c r="C2" s="10">
-        <f>Calculations!C9</f>
-        <v>0.43911888901149831</v>
-      </c>
-      <c r="D2" s="10">
-        <f>Calculations!D9</f>
-        <v>0.5512614537571755</v>
-      </c>
-      <c r="E2" s="10">
-        <f>Calculations!E9</f>
-        <v>0.99017028779157823</v>
-      </c>
-      <c r="F2" s="10">
-        <f>Calculations!F9</f>
-        <v>0.9040864999619681</v>
-      </c>
-      <c r="G2" s="10">
-        <f>Calculations!G9</f>
-        <v>0.93563265591523892</v>
-      </c>
-      <c r="H2" s="10">
-        <f>Calculations!H9</f>
-        <v>0.94478359667742795</v>
-      </c>
-      <c r="I2" s="10">
-        <f>Calculations!I9</f>
-        <v>0.87173359922135818</v>
-      </c>
-      <c r="J2" s="10">
-        <f>Calculations!J9</f>
-        <v>0.97930170898349012</v>
-      </c>
-      <c r="K2" s="34">
-        <f>Calculations!K9</f>
-        <v>0.77213220482667444</v>
-      </c>
-      <c r="L2" s="34">
-        <f>Calculations!L9</f>
-        <v>0.81183276328992038</v>
-      </c>
-      <c r="M2" s="10">
-        <f>Calculations!M9</f>
-        <v>0.92309441441528428</v>
-      </c>
-      <c r="N2" s="10">
-        <f>Calculations!N9</f>
-        <v>0.92975190479368419</v>
-      </c>
-      <c r="O2" s="10">
-        <f>Calculations!O9</f>
-        <v>0.81255958134052997</v>
-      </c>
-      <c r="P2" s="10">
-        <f>Calculations!P9</f>
-        <v>0.89371734088277954</v>
-      </c>
-      <c r="Q2" s="10">
-        <f>Calculations!Q9</f>
-        <v>0.64590139001572799</v>
-      </c>
-      <c r="R2" s="10">
-        <f>Calculations!R9</f>
-        <v>0.87424137136358204</v>
-      </c>
-      <c r="S2" s="10">
-        <f>Calculations!S9</f>
-        <v>0.80718222167564779</v>
-      </c>
-      <c r="T2" s="10">
-        <f>Calculations!T9</f>
-        <v>0.94647011547496562</v>
-      </c>
-      <c r="U2" s="10">
-        <f>Calculations!U9</f>
-        <v>0.70986924892543257</v>
-      </c>
-      <c r="V2" s="10">
-        <f>Calculations!V9</f>
-        <v>0.82807476917188927</v>
-      </c>
-      <c r="W2" s="10">
-        <f>Calculations!W9</f>
-        <v>0.99623843558803404</v>
-      </c>
-      <c r="X2" s="10">
-        <f>Calculations!X9</f>
-        <v>0.99929863916120321</v>
-      </c>
-      <c r="Y2" s="10">
-        <f>Calculations!Y9</f>
-        <v>0.88801030624894983</v>
-      </c>
-      <c r="Z2" s="10">
-        <f>Calculations!Z9</f>
-        <v>0.89320784121856778</v>
-      </c>
-      <c r="AA2" s="10">
-        <f>Calculations!AA9</f>
-        <v>0.90154021429540221</v>
-      </c>
-      <c r="AB2" s="10">
-        <f>Calculations!AB9</f>
-        <v>0.94985127835263983</v>
-      </c>
-      <c r="AC2" s="10">
-        <f>Calculations!AC9</f>
-        <v>0.97877040889055766</v>
-      </c>
-      <c r="AD2" s="10">
-        <f>Calculations!AD9</f>
-        <v>0.89999347932258866</v>
-      </c>
-      <c r="AE2" s="10">
-        <f>Calculations!AE9</f>
-        <v>0.89547071198797801</v>
-      </c>
-      <c r="AF2" s="10">
-        <f>Calculations!AF9</f>
-        <v>0.99149801472029553</v>
-      </c>
-      <c r="AG2" s="10">
-        <f>Calculations!AG9</f>
-        <v>0.8573405509994303</v>
-      </c>
-      <c r="AH2" s="10">
-        <f>Calculations!AH9</f>
-        <v>0.99890647896820772</v>
-      </c>
-      <c r="AI2" s="10">
-        <f>Calculations!AI9</f>
-        <v>0.98245060846486154</v>
-      </c>
-      <c r="AJ2" s="10">
-        <f>Calculations!AJ9</f>
-        <v>0.99445190985727672</v>
-      </c>
-      <c r="AK2" s="10">
-        <f>Calculations!AK9</f>
-        <v>0.97940922684212262</v>
-      </c>
-      <c r="AL2" s="10">
-        <f>Calculations!AL9</f>
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>